--- a/BackTest/2020-01-19 BackTest AOA.xlsx
+++ b/BackTest/2020-01-19 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M282"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>1.862</v>
       </c>
       <c r="C2" t="n">
-        <v>1.861</v>
+        <v>1.862</v>
       </c>
       <c r="D2" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="E2" t="n">
-        <v>1.861</v>
+        <v>1.862</v>
       </c>
       <c r="F2" t="n">
-        <v>1187208.7781</v>
+        <v>244177.0278</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866799999999998</v>
+        <v>1.867249999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.861</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.86</v>
-      </c>
       <c r="D3" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.861</v>
       </c>
-      <c r="E3" t="n">
-        <v>1.86</v>
-      </c>
       <c r="F3" t="n">
-        <v>999900</v>
+        <v>1187208.7781</v>
       </c>
       <c r="G3" t="n">
-        <v>1.866683333333332</v>
+        <v>1.866799999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.877</v>
+        <v>1.861</v>
       </c>
       <c r="C4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.861</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.877</v>
-      </c>
       <c r="E4" t="n">
-        <v>1.861</v>
+        <v>1.86</v>
       </c>
       <c r="F4" t="n">
-        <v>510625</v>
+        <v>999900</v>
       </c>
       <c r="G4" t="n">
-        <v>1.866216666666665</v>
+        <v>1.866683333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.861</v>
+        <v>1.877</v>
       </c>
       <c r="C5" t="n">
         <v>1.861</v>
@@ -550,10 +550,10 @@
         <v>1.861</v>
       </c>
       <c r="F5" t="n">
-        <v>3494604</v>
+        <v>510625</v>
       </c>
       <c r="G5" t="n">
-        <v>1.866133333333332</v>
+        <v>1.866216666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.877</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.878</v>
-      </c>
       <c r="E6" t="n">
-        <v>1.862</v>
+        <v>1.861</v>
       </c>
       <c r="F6" t="n">
-        <v>1499880.1642</v>
+        <v>3494604</v>
       </c>
       <c r="G6" t="n">
-        <v>1.866433333333332</v>
+        <v>1.866133333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="C7" t="n">
         <v>1.878</v>
@@ -617,13 +617,13 @@
         <v>1.878</v>
       </c>
       <c r="E7" t="n">
-        <v>1.878</v>
+        <v>1.862</v>
       </c>
       <c r="F7" t="n">
-        <v>449046.2823</v>
+        <v>1499880.1642</v>
       </c>
       <c r="G7" t="n">
-        <v>1.866583333333332</v>
+        <v>1.866433333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1.878</v>
       </c>
       <c r="F8" t="n">
-        <v>19755.7623</v>
+        <v>449046.2823</v>
       </c>
       <c r="G8" t="n">
-        <v>1.867033333333332</v>
+        <v>1.866583333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>1.878</v>
       </c>
       <c r="F9" t="n">
-        <v>29634.176</v>
+        <v>19755.7623</v>
       </c>
       <c r="G9" t="n">
-        <v>1.867199999999999</v>
+        <v>1.867033333333332</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="C10" t="n">
-        <v>1.862</v>
+        <v>1.878</v>
       </c>
       <c r="D10" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="E10" t="n">
-        <v>1.862</v>
+        <v>1.878</v>
       </c>
       <c r="F10" t="n">
-        <v>1457967</v>
+        <v>29634.176</v>
       </c>
       <c r="G10" t="n">
-        <v>1.867383333333332</v>
+        <v>1.867199999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="C11" t="n">
-        <v>1.878</v>
+        <v>1.862</v>
       </c>
       <c r="D11" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="E11" t="n">
-        <v>1.878</v>
+        <v>1.862</v>
       </c>
       <c r="F11" t="n">
-        <v>159744.4089456869</v>
+        <v>1457967</v>
       </c>
       <c r="G11" t="n">
-        <v>1.867683333333332</v>
+        <v>1.867383333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.861</v>
+        <v>1.878</v>
       </c>
       <c r="C12" t="n">
-        <v>1.861</v>
+        <v>1.878</v>
       </c>
       <c r="D12" t="n">
-        <v>1.861</v>
+        <v>1.878</v>
       </c>
       <c r="E12" t="n">
-        <v>1.861</v>
+        <v>1.878</v>
       </c>
       <c r="F12" t="n">
-        <v>209668.1069</v>
+        <v>159744.4089456869</v>
       </c>
       <c r="G12" t="n">
-        <v>1.867383333333332</v>
+        <v>1.867683333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>1.861</v>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>209668.1069</v>
       </c>
       <c r="G13" t="n">
         <v>1.867383333333332</v>
@@ -865,10 +865,10 @@
         <v>1.861</v>
       </c>
       <c r="F14" t="n">
-        <v>521933.8978</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="n">
-        <v>1.867083333333332</v>
+        <v>1.867383333333332</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1.861</v>
       </c>
       <c r="F15" t="n">
-        <v>100000</v>
+        <v>521933.8978</v>
       </c>
       <c r="G15" t="n">
-        <v>1.867066666666666</v>
+        <v>1.867083333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.855</v>
+        <v>1.861</v>
       </c>
       <c r="C16" t="n">
-        <v>1.85</v>
+        <v>1.861</v>
       </c>
       <c r="D16" t="n">
-        <v>1.855</v>
+        <v>1.861</v>
       </c>
       <c r="E16" t="n">
-        <v>1.85</v>
+        <v>1.861</v>
       </c>
       <c r="F16" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="G16" t="n">
-        <v>1.866583333333332</v>
+        <v>1.867066666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="C17" t="n">
-        <v>1.847</v>
+        <v>1.85</v>
       </c>
       <c r="D17" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="E17" t="n">
-        <v>1.847</v>
+        <v>1.85</v>
       </c>
       <c r="F17" t="n">
-        <v>808229.9510999999</v>
+        <v>200000</v>
       </c>
       <c r="G17" t="n">
-        <v>1.866349999999998</v>
+        <v>1.866583333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.846</v>
+        <v>1.86</v>
       </c>
       <c r="C18" t="n">
-        <v>1.839</v>
+        <v>1.847</v>
       </c>
       <c r="D18" t="n">
-        <v>1.846</v>
+        <v>1.86</v>
       </c>
       <c r="E18" t="n">
-        <v>1.839</v>
+        <v>1.847</v>
       </c>
       <c r="F18" t="n">
-        <v>1770363.6756</v>
+        <v>808229.9510999999</v>
       </c>
       <c r="G18" t="n">
-        <v>1.865983333333332</v>
+        <v>1.866349999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.85</v>
+        <v>1.846</v>
       </c>
       <c r="C19" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="D19" t="n">
-        <v>1.85</v>
+        <v>1.846</v>
       </c>
       <c r="E19" t="n">
-        <v>1.838</v>
+        <v>1.839</v>
       </c>
       <c r="F19" t="n">
-        <v>426832.7169</v>
+        <v>1770363.6756</v>
       </c>
       <c r="G19" t="n">
-        <v>1.865616666666665</v>
+        <v>1.865983333333332</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,32 +1063,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.838</v>
       </c>
-      <c r="C20" t="n">
-        <v>1.851</v>
-      </c>
       <c r="D20" t="n">
-        <v>1.869</v>
+        <v>1.85</v>
       </c>
       <c r="E20" t="n">
         <v>1.838</v>
       </c>
       <c r="F20" t="n">
-        <v>888949.004</v>
+        <v>426832.7169</v>
       </c>
       <c r="G20" t="n">
-        <v>1.865466666666665</v>
+        <v>1.865616666666665</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1.839</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,32 +1104,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.869</v>
+        <v>1.838</v>
       </c>
       <c r="C21" t="n">
-        <v>1.868</v>
+        <v>1.851</v>
       </c>
       <c r="D21" t="n">
         <v>1.869</v>
       </c>
       <c r="E21" t="n">
-        <v>1.851</v>
+        <v>1.838</v>
       </c>
       <c r="F21" t="n">
-        <v>3098013</v>
+        <v>888949.004</v>
       </c>
       <c r="G21" t="n">
-        <v>1.865599999999998</v>
+        <v>1.865466666666665</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1.838</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,32 +1145,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="C22" t="n">
-        <v>1.869</v>
+        <v>1.868</v>
       </c>
       <c r="D22" t="n">
         <v>1.869</v>
       </c>
       <c r="E22" t="n">
-        <v>1.852</v>
+        <v>1.851</v>
       </c>
       <c r="F22" t="n">
-        <v>3379069.3192</v>
+        <v>3098013</v>
       </c>
       <c r="G22" t="n">
-        <v>1.865733333333331</v>
+        <v>1.865599999999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1.851</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,10 +1186,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C23" t="n">
         <v>1.869</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.852</v>
       </c>
       <c r="D23" t="n">
         <v>1.869</v>
@@ -1180,10 +1198,10 @@
         <v>1.852</v>
       </c>
       <c r="F23" t="n">
-        <v>666479</v>
+        <v>3379069.3192</v>
       </c>
       <c r="G23" t="n">
-        <v>1.865299999999998</v>
+        <v>1.865733333333331</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1211,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1206,19 +1228,19 @@
         <v>1.869</v>
       </c>
       <c r="C24" t="n">
-        <v>1.867</v>
+        <v>1.852</v>
       </c>
       <c r="D24" t="n">
         <v>1.869</v>
       </c>
       <c r="E24" t="n">
-        <v>1.867</v>
+        <v>1.852</v>
       </c>
       <c r="F24" t="n">
-        <v>536</v>
+        <v>666479</v>
       </c>
       <c r="G24" t="n">
-        <v>1.865383333333332</v>
+        <v>1.865299999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1250,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1264,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.868</v>
+        <v>1.869</v>
       </c>
       <c r="C25" t="n">
-        <v>1.868</v>
+        <v>1.867</v>
       </c>
       <c r="D25" t="n">
-        <v>1.868</v>
+        <v>1.869</v>
       </c>
       <c r="E25" t="n">
-        <v>1.868</v>
+        <v>1.867</v>
       </c>
       <c r="F25" t="n">
-        <v>252583</v>
+        <v>536</v>
       </c>
       <c r="G25" t="n">
-        <v>1.865216666666665</v>
+        <v>1.865383333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1289,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1303,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.851</v>
+        <v>1.868</v>
       </c>
       <c r="C26" t="n">
-        <v>1.85</v>
+        <v>1.868</v>
       </c>
       <c r="D26" t="n">
         <v>1.868</v>
       </c>
       <c r="E26" t="n">
-        <v>1.85</v>
+        <v>1.868</v>
       </c>
       <c r="F26" t="n">
-        <v>3556629</v>
+        <v>252583</v>
       </c>
       <c r="G26" t="n">
-        <v>1.865016666666665</v>
+        <v>1.865216666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1328,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.868</v>
+        <v>1.851</v>
       </c>
       <c r="C27" t="n">
         <v>1.85</v>
@@ -1320,10 +1354,10 @@
         <v>1.85</v>
       </c>
       <c r="F27" t="n">
-        <v>3754583</v>
+        <v>3556629</v>
       </c>
       <c r="G27" t="n">
-        <v>1.864816666666665</v>
+        <v>1.865016666666665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1367,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1346,19 +1384,19 @@
         <v>1.868</v>
       </c>
       <c r="C28" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="D28" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="E28" t="n">
-        <v>1.868</v>
+        <v>1.85</v>
       </c>
       <c r="F28" t="n">
-        <v>60000</v>
+        <v>3754583</v>
       </c>
       <c r="G28" t="n">
-        <v>1.864683333333332</v>
+        <v>1.864816666666665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1406,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1420,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.87</v>
       </c>
-      <c r="C29" t="n">
-        <v>1.851</v>
-      </c>
       <c r="D29" t="n">
-        <v>1.877</v>
+        <v>1.87</v>
       </c>
       <c r="E29" t="n">
-        <v>1.851</v>
+        <v>1.868</v>
       </c>
       <c r="F29" t="n">
-        <v>2026936</v>
+        <v>60000</v>
       </c>
       <c r="G29" t="n">
-        <v>1.864233333333332</v>
+        <v>1.864683333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1445,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1459,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="C30" t="n">
-        <v>1.869</v>
+        <v>1.851</v>
       </c>
       <c r="D30" t="n">
-        <v>1.869</v>
+        <v>1.877</v>
       </c>
       <c r="E30" t="n">
         <v>1.851</v>
       </c>
       <c r="F30" t="n">
-        <v>2853744</v>
+        <v>2026936</v>
       </c>
       <c r="G30" t="n">
-        <v>1.864349999999998</v>
+        <v>1.864233333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1484,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1498,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.851</v>
+        <v>1.869</v>
       </c>
       <c r="C31" t="n">
-        <v>1.852</v>
+        <v>1.869</v>
       </c>
       <c r="D31" t="n">
-        <v>1.878</v>
+        <v>1.869</v>
       </c>
       <c r="E31" t="n">
         <v>1.851</v>
       </c>
       <c r="F31" t="n">
-        <v>1731926.7104</v>
+        <v>2853744</v>
       </c>
       <c r="G31" t="n">
-        <v>1.864183333333332</v>
+        <v>1.864349999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1523,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1537,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D32" t="n">
         <v>1.878</v>
       </c>
-      <c r="C32" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.879</v>
-      </c>
       <c r="E32" t="n">
-        <v>1.878</v>
+        <v>1.851</v>
       </c>
       <c r="F32" t="n">
-        <v>189781.9899</v>
+        <v>1731926.7104</v>
       </c>
       <c r="G32" t="n">
-        <v>1.864199999999999</v>
+        <v>1.864183333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1562,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1588,10 @@
         <v>1.878</v>
       </c>
       <c r="F33" t="n">
-        <v>48305.5864</v>
+        <v>189781.9899</v>
       </c>
       <c r="G33" t="n">
-        <v>1.864483333333332</v>
+        <v>1.864199999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1601,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1618,19 @@
         <v>1.878</v>
       </c>
       <c r="C34" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="D34" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="E34" t="n">
         <v>1.878</v>
       </c>
       <c r="F34" t="n">
-        <v>300000</v>
+        <v>48305.5864</v>
       </c>
       <c r="G34" t="n">
-        <v>1.864749999999999</v>
+        <v>1.864483333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1640,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1600,10 +1666,10 @@
         <v>1.878</v>
       </c>
       <c r="F35" t="n">
-        <v>386110.4781</v>
+        <v>300000</v>
       </c>
       <c r="G35" t="n">
-        <v>1.865016666666666</v>
+        <v>1.864749999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1679,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1635,10 +1705,10 @@
         <v>1.878</v>
       </c>
       <c r="F36" t="n">
-        <v>26557.6686</v>
+        <v>386110.4781</v>
       </c>
       <c r="G36" t="n">
-        <v>1.865283333333333</v>
+        <v>1.865016666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1718,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,10 +1744,10 @@
         <v>1.878</v>
       </c>
       <c r="F37" t="n">
-        <v>2736.2637</v>
+        <v>26557.6686</v>
       </c>
       <c r="G37" t="n">
-        <v>1.865566666666666</v>
+        <v>1.865283333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1757,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1771,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.862</v>
+        <v>1.878</v>
       </c>
       <c r="C38" t="n">
-        <v>1.862</v>
+        <v>1.878</v>
       </c>
       <c r="D38" t="n">
-        <v>1.862</v>
+        <v>1.878</v>
       </c>
       <c r="E38" t="n">
-        <v>1.862</v>
+        <v>1.878</v>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
+        <v>2736.2637</v>
       </c>
       <c r="G38" t="n">
-        <v>1.865299999999999</v>
+        <v>1.865566666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1796,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1810,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="C39" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="D39" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="E39" t="n">
-        <v>1.877</v>
+        <v>1.862</v>
       </c>
       <c r="F39" t="n">
-        <v>267</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="n">
-        <v>1.865566666666665</v>
+        <v>1.865299999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1835,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1849,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.876</v>
+        <v>1.877</v>
       </c>
       <c r="C40" t="n">
-        <v>1.862</v>
+        <v>1.877</v>
       </c>
       <c r="D40" t="n">
-        <v>1.876</v>
+        <v>1.877</v>
       </c>
       <c r="E40" t="n">
-        <v>1.862</v>
+        <v>1.877</v>
       </c>
       <c r="F40" t="n">
-        <v>547</v>
+        <v>267</v>
       </c>
       <c r="G40" t="n">
-        <v>1.865599999999999</v>
+        <v>1.865566666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1874,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1888,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.862</v>
+        <v>1.876</v>
       </c>
       <c r="C41" t="n">
         <v>1.862</v>
       </c>
       <c r="D41" t="n">
-        <v>1.862</v>
+        <v>1.876</v>
       </c>
       <c r="E41" t="n">
         <v>1.862</v>
       </c>
       <c r="F41" t="n">
-        <v>561501.2886</v>
+        <v>547</v>
       </c>
       <c r="G41" t="n">
-        <v>1.865466666666665</v>
+        <v>1.865599999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1913,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1836,19 +1930,19 @@
         <v>1.862</v>
       </c>
       <c r="C42" t="n">
-        <v>1.861</v>
+        <v>1.862</v>
       </c>
       <c r="D42" t="n">
         <v>1.862</v>
       </c>
       <c r="E42" t="n">
-        <v>1.861</v>
+        <v>1.862</v>
       </c>
       <c r="F42" t="n">
-        <v>352514.9088</v>
+        <v>561501.2886</v>
       </c>
       <c r="G42" t="n">
-        <v>1.865449999999999</v>
+        <v>1.865466666666665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1952,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1966,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.861</v>
+        <v>1.862</v>
       </c>
       <c r="C43" t="n">
         <v>1.861</v>
       </c>
       <c r="D43" t="n">
-        <v>1.861</v>
+        <v>1.862</v>
       </c>
       <c r="E43" t="n">
         <v>1.861</v>
       </c>
       <c r="F43" t="n">
-        <v>598900.6002</v>
+        <v>352514.9088</v>
       </c>
       <c r="G43" t="n">
-        <v>1.865183333333332</v>
+        <v>1.865449999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1991,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2017,10 @@
         <v>1.861</v>
       </c>
       <c r="F44" t="n">
-        <v>1035264</v>
+        <v>598900.6002</v>
       </c>
       <c r="G44" t="n">
-        <v>1.865149999999999</v>
+        <v>1.865183333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2030,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2044,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.877</v>
+        <v>1.861</v>
       </c>
       <c r="C45" t="n">
-        <v>1.877</v>
+        <v>1.861</v>
       </c>
       <c r="D45" t="n">
-        <v>1.877</v>
+        <v>1.861</v>
       </c>
       <c r="E45" t="n">
-        <v>1.877</v>
+        <v>1.861</v>
       </c>
       <c r="F45" t="n">
-        <v>29237.0057</v>
+        <v>1035264</v>
       </c>
       <c r="G45" t="n">
-        <v>1.865383333333332</v>
+        <v>1.865149999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2069,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2083,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="C46" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="D46" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="E46" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="F46" t="n">
-        <v>270</v>
+        <v>29237.0057</v>
       </c>
       <c r="G46" t="n">
-        <v>1.865633333333332</v>
+        <v>1.865383333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2108,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2122,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="C47" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="D47" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="E47" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="F47" t="n">
-        <v>176463.8138</v>
+        <v>270</v>
       </c>
       <c r="G47" t="n">
-        <v>1.865833333333332</v>
+        <v>1.865633333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2147,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2161,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="C48" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="D48" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="E48" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="F48" t="n">
-        <v>168340.7880724175</v>
+        <v>176463.8138</v>
       </c>
       <c r="G48" t="n">
-        <v>1.866049999999999</v>
+        <v>1.865833333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2186,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2200,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="C49" t="n">
-        <v>1.865</v>
+        <v>1.878</v>
       </c>
       <c r="D49" t="n">
-        <v>1.877</v>
+        <v>1.878</v>
       </c>
       <c r="E49" t="n">
-        <v>1.865</v>
+        <v>1.878</v>
       </c>
       <c r="F49" t="n">
-        <v>90811.5211</v>
+        <v>168340.7880724175</v>
       </c>
       <c r="G49" t="n">
-        <v>1.866116666666666</v>
+        <v>1.866049999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2225,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2239,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="C50" t="n">
-        <v>1.878</v>
+        <v>1.865</v>
       </c>
       <c r="D50" t="n">
-        <v>1.878</v>
+        <v>1.877</v>
       </c>
       <c r="E50" t="n">
-        <v>1.878</v>
+        <v>1.865</v>
       </c>
       <c r="F50" t="n">
-        <v>267</v>
+        <v>90811.5211</v>
       </c>
       <c r="G50" t="n">
-        <v>1.866399999999999</v>
+        <v>1.866116666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2264,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2278,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.876</v>
+        <v>1.878</v>
       </c>
       <c r="C51" t="n">
-        <v>1.876</v>
+        <v>1.878</v>
       </c>
       <c r="D51" t="n">
-        <v>1.876</v>
+        <v>1.878</v>
       </c>
       <c r="E51" t="n">
-        <v>1.876</v>
+        <v>1.878</v>
       </c>
       <c r="F51" t="n">
         <v>267</v>
       </c>
       <c r="G51" t="n">
-        <v>1.866383333333332</v>
+        <v>1.866399999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2303,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2317,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.865</v>
+        <v>1.876</v>
       </c>
       <c r="C52" t="n">
-        <v>1.865</v>
+        <v>1.876</v>
       </c>
       <c r="D52" t="n">
-        <v>1.865</v>
+        <v>1.876</v>
       </c>
       <c r="E52" t="n">
-        <v>1.865</v>
+        <v>1.876</v>
       </c>
       <c r="F52" t="n">
-        <v>11281.8883</v>
+        <v>267</v>
       </c>
       <c r="G52" t="n">
-        <v>1.866183333333332</v>
+        <v>1.866383333333332</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2342,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2356,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.876</v>
+        <v>1.865</v>
       </c>
       <c r="C53" t="n">
-        <v>1.876</v>
+        <v>1.865</v>
       </c>
       <c r="D53" t="n">
-        <v>1.876</v>
+        <v>1.865</v>
       </c>
       <c r="E53" t="n">
-        <v>1.876</v>
+        <v>1.865</v>
       </c>
       <c r="F53" t="n">
-        <v>159515.5501</v>
+        <v>11281.8883</v>
       </c>
       <c r="G53" t="n">
-        <v>1.866166666666666</v>
+        <v>1.866183333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2381,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,10 +2407,10 @@
         <v>1.876</v>
       </c>
       <c r="F54" t="n">
-        <v>330056.0804</v>
+        <v>159515.5501</v>
       </c>
       <c r="G54" t="n">
-        <v>1.866149999999999</v>
+        <v>1.866166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2420,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2446,10 @@
         <v>1.876</v>
       </c>
       <c r="F55" t="n">
-        <v>10462.2718</v>
+        <v>330056.0804</v>
       </c>
       <c r="G55" t="n">
-        <v>1.866133333333333</v>
+        <v>1.866149999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2459,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2473,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.865</v>
+        <v>1.876</v>
       </c>
       <c r="C56" t="n">
-        <v>1.865</v>
+        <v>1.876</v>
       </c>
       <c r="D56" t="n">
-        <v>1.865</v>
+        <v>1.876</v>
       </c>
       <c r="E56" t="n">
-        <v>1.865</v>
+        <v>1.876</v>
       </c>
       <c r="F56" t="n">
-        <v>330153.0804</v>
+        <v>10462.2718</v>
       </c>
       <c r="G56" t="n">
-        <v>1.866183333333333</v>
+        <v>1.866133333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2498,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2512,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.875</v>
+        <v>1.865</v>
       </c>
       <c r="C57" t="n">
-        <v>1.875</v>
+        <v>1.865</v>
       </c>
       <c r="D57" t="n">
-        <v>1.875</v>
+        <v>1.865</v>
       </c>
       <c r="E57" t="n">
-        <v>1.875</v>
+        <v>1.865</v>
       </c>
       <c r="F57" t="n">
-        <v>267</v>
+        <v>330153.0804</v>
       </c>
       <c r="G57" t="n">
-        <v>1.86615</v>
+        <v>1.866183333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2537,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2551,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="C58" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="D58" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="E58" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="F58" t="n">
         <v>267</v>
       </c>
       <c r="G58" t="n">
-        <v>1.866099999999999</v>
+        <v>1.86615</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2576,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2590,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.868</v>
+        <v>1.874</v>
       </c>
       <c r="C59" t="n">
-        <v>1.868</v>
+        <v>1.874</v>
       </c>
       <c r="D59" t="n">
-        <v>1.868</v>
+        <v>1.874</v>
       </c>
       <c r="E59" t="n">
-        <v>1.868</v>
+        <v>1.874</v>
       </c>
       <c r="F59" t="n">
-        <v>374465.4744</v>
+        <v>267</v>
       </c>
       <c r="G59" t="n">
-        <v>1.866216666666666</v>
+        <v>1.866099999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2615,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2629,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.866</v>
+        <v>1.868</v>
       </c>
       <c r="C60" t="n">
-        <v>1.866</v>
+        <v>1.868</v>
       </c>
       <c r="D60" t="n">
-        <v>1.866</v>
+        <v>1.868</v>
       </c>
       <c r="E60" t="n">
-        <v>1.866</v>
+        <v>1.868</v>
       </c>
       <c r="F60" t="n">
-        <v>113089.9974</v>
+        <v>374465.4744</v>
       </c>
       <c r="G60" t="n">
-        <v>1.866299999999999</v>
+        <v>1.866216666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2654,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2680,10 @@
         <v>1.866</v>
       </c>
       <c r="F61" t="n">
-        <v>16915.9747</v>
+        <v>113089.9974</v>
       </c>
       <c r="G61" t="n">
-        <v>1.866366666666666</v>
+        <v>1.866299999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2693,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2707,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.875</v>
+        <v>1.866</v>
       </c>
       <c r="C62" t="n">
-        <v>1.875</v>
+        <v>1.866</v>
       </c>
       <c r="D62" t="n">
-        <v>1.875</v>
+        <v>1.866</v>
       </c>
       <c r="E62" t="n">
-        <v>1.875</v>
+        <v>1.866</v>
       </c>
       <c r="F62" t="n">
-        <v>174601.2126</v>
+        <v>16915.9747</v>
       </c>
       <c r="G62" t="n">
-        <v>1.866599999999999</v>
+        <v>1.866366666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2732,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2749,19 @@
         <v>1.875</v>
       </c>
       <c r="C63" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="D63" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="E63" t="n">
         <v>1.875</v>
       </c>
       <c r="F63" t="n">
-        <v>90971.4278</v>
+        <v>174601.2126</v>
       </c>
       <c r="G63" t="n">
-        <v>1.866866666666666</v>
+        <v>1.866599999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2771,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,7 +2785,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="C64" t="n">
         <v>1.876</v>
@@ -2612,13 +2794,13 @@
         <v>1.876</v>
       </c>
       <c r="E64" t="n">
-        <v>1.876</v>
+        <v>1.875</v>
       </c>
       <c r="F64" t="n">
-        <v>105014.9094</v>
+        <v>90971.4278</v>
       </c>
       <c r="G64" t="n">
-        <v>1.867116666666666</v>
+        <v>1.866866666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2810,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2836,10 @@
         <v>1.876</v>
       </c>
       <c r="F65" t="n">
-        <v>105015.4411</v>
+        <v>105014.9094</v>
       </c>
       <c r="G65" t="n">
-        <v>1.867366666666666</v>
+        <v>1.867116666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2849,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2875,10 @@
         <v>1.876</v>
       </c>
       <c r="F66" t="n">
-        <v>193125.4114</v>
+        <v>105015.4411</v>
       </c>
       <c r="G66" t="n">
-        <v>1.867333333333333</v>
+        <v>1.867366666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2888,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2902,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.871</v>
+        <v>1.876</v>
       </c>
       <c r="C67" t="n">
-        <v>1.87</v>
+        <v>1.876</v>
       </c>
       <c r="D67" t="n">
-        <v>1.871</v>
+        <v>1.876</v>
       </c>
       <c r="E67" t="n">
-        <v>1.87</v>
+        <v>1.876</v>
       </c>
       <c r="F67" t="n">
-        <v>35719.9793</v>
+        <v>193125.4114</v>
       </c>
       <c r="G67" t="n">
-        <v>1.8672</v>
+        <v>1.867333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2927,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2941,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.866</v>
+        <v>1.871</v>
       </c>
       <c r="C68" t="n">
-        <v>1.862</v>
+        <v>1.87</v>
       </c>
       <c r="D68" t="n">
-        <v>1.866</v>
+        <v>1.871</v>
       </c>
       <c r="E68" t="n">
-        <v>1.862</v>
+        <v>1.87</v>
       </c>
       <c r="F68" t="n">
-        <v>343350.9938</v>
+        <v>35719.9793</v>
       </c>
       <c r="G68" t="n">
-        <v>1.866933333333333</v>
+        <v>1.8672</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2966,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2980,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.86</v>
+        <v>1.866</v>
       </c>
       <c r="C69" t="n">
-        <v>1.86</v>
+        <v>1.862</v>
       </c>
       <c r="D69" t="n">
-        <v>1.86</v>
+        <v>1.866</v>
       </c>
       <c r="E69" t="n">
-        <v>1.86</v>
+        <v>1.862</v>
       </c>
       <c r="F69" t="n">
-        <v>454735.6346</v>
+        <v>343350.9938</v>
       </c>
       <c r="G69" t="n">
-        <v>1.866633333333333</v>
+        <v>1.866933333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +3005,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2825,10 +3031,10 @@
         <v>1.86</v>
       </c>
       <c r="F70" t="n">
-        <v>102097.8164</v>
+        <v>454735.6346</v>
       </c>
       <c r="G70" t="n">
-        <v>1.866599999999999</v>
+        <v>1.866633333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3044,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3058,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="C71" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="D71" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="E71" t="n">
-        <v>1.862</v>
+        <v>1.86</v>
       </c>
       <c r="F71" t="n">
-        <v>5083.5907</v>
+        <v>102097.8164</v>
       </c>
       <c r="G71" t="n">
-        <v>1.866333333333333</v>
+        <v>1.866599999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3083,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3097,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.86</v>
+        <v>1.862</v>
       </c>
       <c r="C72" t="n">
-        <v>1.86</v>
+        <v>1.862</v>
       </c>
       <c r="D72" t="n">
-        <v>1.86</v>
+        <v>1.862</v>
       </c>
       <c r="E72" t="n">
-        <v>1.86</v>
+        <v>1.862</v>
       </c>
       <c r="F72" t="n">
-        <v>9816.8264</v>
+        <v>5083.5907</v>
       </c>
       <c r="G72" t="n">
-        <v>1.866316666666666</v>
+        <v>1.866333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3122,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3136,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.851</v>
+        <v>1.86</v>
       </c>
       <c r="C73" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="D73" t="n">
-        <v>1.851</v>
+        <v>1.86</v>
       </c>
       <c r="E73" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="F73" t="n">
-        <v>163561.9554</v>
+        <v>9816.8264</v>
       </c>
       <c r="G73" t="n">
-        <v>1.866133333333333</v>
+        <v>1.866316666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3161,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3175,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="C74" t="n">
         <v>1.85</v>
       </c>
       <c r="D74" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="E74" t="n">
         <v>1.85</v>
       </c>
       <c r="F74" t="n">
-        <v>80219.3602</v>
+        <v>163561.9554</v>
       </c>
       <c r="G74" t="n">
-        <v>1.865949999999999</v>
+        <v>1.866133333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3200,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3214,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.865</v>
+        <v>1.85</v>
       </c>
       <c r="C75" t="n">
-        <v>1.865</v>
+        <v>1.85</v>
       </c>
       <c r="D75" t="n">
-        <v>1.865</v>
+        <v>1.85</v>
       </c>
       <c r="E75" t="n">
-        <v>1.865</v>
+        <v>1.85</v>
       </c>
       <c r="F75" t="n">
-        <v>35217.35</v>
+        <v>80219.3602</v>
       </c>
       <c r="G75" t="n">
-        <v>1.866016666666666</v>
+        <v>1.865949999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3239,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3253,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.866</v>
+        <v>1.865</v>
       </c>
       <c r="C76" t="n">
-        <v>1.852</v>
+        <v>1.865</v>
       </c>
       <c r="D76" t="n">
-        <v>1.869</v>
+        <v>1.865</v>
       </c>
       <c r="E76" t="n">
-        <v>1.852</v>
+        <v>1.865</v>
       </c>
       <c r="F76" t="n">
-        <v>531142.303</v>
+        <v>35217.35</v>
       </c>
       <c r="G76" t="n">
-        <v>1.866049999999999</v>
+        <v>1.866016666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3278,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3292,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C77" t="n">
         <v>1.852</v>
       </c>
-      <c r="C77" t="n">
-        <v>1.853</v>
-      </c>
       <c r="D77" t="n">
-        <v>1.87</v>
+        <v>1.869</v>
       </c>
       <c r="E77" t="n">
         <v>1.852</v>
       </c>
       <c r="F77" t="n">
-        <v>3249792.0897</v>
+        <v>531142.303</v>
       </c>
       <c r="G77" t="n">
-        <v>1.866149999999999</v>
+        <v>1.866049999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3317,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3331,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.869</v>
+        <v>1.852</v>
       </c>
       <c r="C78" t="n">
-        <v>1.869</v>
+        <v>1.853</v>
       </c>
       <c r="D78" t="n">
         <v>1.87</v>
       </c>
       <c r="E78" t="n">
-        <v>1.853</v>
+        <v>1.852</v>
       </c>
       <c r="F78" t="n">
-        <v>3085608.3445</v>
+        <v>3249792.0897</v>
       </c>
       <c r="G78" t="n">
-        <v>1.866649999999999</v>
+        <v>1.866149999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3356,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3370,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.853</v>
+        <v>1.869</v>
       </c>
       <c r="C79" t="n">
-        <v>1.853</v>
+        <v>1.869</v>
       </c>
       <c r="D79" t="n">
-        <v>1.853</v>
+        <v>1.87</v>
       </c>
       <c r="E79" t="n">
         <v>1.853</v>
       </c>
       <c r="F79" t="n">
-        <v>437070</v>
+        <v>3085608.3445</v>
       </c>
       <c r="G79" t="n">
-        <v>1.866899999999999</v>
+        <v>1.866649999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3395,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3409,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.868</v>
+        <v>1.853</v>
       </c>
       <c r="C80" t="n">
-        <v>1.868</v>
+        <v>1.853</v>
       </c>
       <c r="D80" t="n">
-        <v>1.868</v>
+        <v>1.853</v>
       </c>
       <c r="E80" t="n">
-        <v>1.868</v>
+        <v>1.853</v>
       </c>
       <c r="F80" t="n">
-        <v>38592.7108</v>
+        <v>437070</v>
       </c>
       <c r="G80" t="n">
-        <v>1.867183333333332</v>
+        <v>1.866899999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3434,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,7 +3460,7 @@
         <v>1.868</v>
       </c>
       <c r="F81" t="n">
-        <v>596.891</v>
+        <v>38592.7108</v>
       </c>
       <c r="G81" t="n">
         <v>1.867183333333332</v>
@@ -3223,7 +3473,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3487,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.855</v>
+        <v>1.868</v>
       </c>
       <c r="C82" t="n">
-        <v>1.855</v>
+        <v>1.868</v>
       </c>
       <c r="D82" t="n">
-        <v>1.855</v>
+        <v>1.868</v>
       </c>
       <c r="E82" t="n">
-        <v>1.855</v>
+        <v>1.868</v>
       </c>
       <c r="F82" t="n">
-        <v>4916.5495</v>
+        <v>596.891</v>
       </c>
       <c r="G82" t="n">
-        <v>1.866949999999999</v>
+        <v>1.867183333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3512,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3538,10 @@
         <v>1.855</v>
       </c>
       <c r="F83" t="n">
-        <v>729229.515</v>
+        <v>4916.5495</v>
       </c>
       <c r="G83" t="n">
-        <v>1.866999999999999</v>
+        <v>1.866949999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3551,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3565,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.854</v>
+        <v>1.855</v>
       </c>
       <c r="C84" t="n">
-        <v>1.854</v>
+        <v>1.855</v>
       </c>
       <c r="D84" t="n">
-        <v>1.854</v>
+        <v>1.855</v>
       </c>
       <c r="E84" t="n">
-        <v>1.854</v>
+        <v>1.855</v>
       </c>
       <c r="F84" t="n">
-        <v>186423.6294</v>
+        <v>729229.515</v>
       </c>
       <c r="G84" t="n">
-        <v>1.866783333333332</v>
+        <v>1.866999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3590,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3344,16 +3610,16 @@
         <v>1.854</v>
       </c>
       <c r="D85" t="n">
-        <v>1.87</v>
+        <v>1.854</v>
       </c>
       <c r="E85" t="n">
         <v>1.854</v>
       </c>
       <c r="F85" t="n">
-        <v>1034732.809874706</v>
+        <v>186423.6294</v>
       </c>
       <c r="G85" t="n">
-        <v>1.866549999999999</v>
+        <v>1.866783333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3629,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3643,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.869</v>
+        <v>1.854</v>
       </c>
       <c r="C86" t="n">
-        <v>1.869</v>
+        <v>1.854</v>
       </c>
       <c r="D86" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="E86" t="n">
         <v>1.854</v>
       </c>
       <c r="F86" t="n">
-        <v>3130550</v>
+        <v>1034732.809874706</v>
       </c>
       <c r="G86" t="n">
-        <v>1.866866666666666</v>
+        <v>1.866549999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3668,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3694,10 @@
         <v>1.854</v>
       </c>
       <c r="F87" t="n">
-        <v>3234255</v>
+        <v>3130550</v>
       </c>
       <c r="G87" t="n">
-        <v>1.867183333333333</v>
+        <v>1.866866666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3707,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3721,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.854</v>
+        <v>1.869</v>
       </c>
       <c r="C88" t="n">
-        <v>1.854</v>
+        <v>1.869</v>
       </c>
       <c r="D88" t="n">
-        <v>1.854</v>
+        <v>1.869</v>
       </c>
       <c r="E88" t="n">
         <v>1.854</v>
       </c>
       <c r="F88" t="n">
-        <v>473852</v>
+        <v>3234255</v>
       </c>
       <c r="G88" t="n">
-        <v>1.866916666666666</v>
+        <v>1.867183333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3746,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3760,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.869</v>
+        <v>1.854</v>
       </c>
       <c r="C89" t="n">
-        <v>1.868</v>
+        <v>1.854</v>
       </c>
       <c r="D89" t="n">
-        <v>1.869</v>
+        <v>1.854</v>
       </c>
       <c r="E89" t="n">
-        <v>1.868</v>
+        <v>1.854</v>
       </c>
       <c r="F89" t="n">
-        <v>13507.7572</v>
+        <v>473852</v>
       </c>
       <c r="G89" t="n">
-        <v>1.867199999999999</v>
+        <v>1.866916666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3785,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3799,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.868</v>
+        <v>1.869</v>
       </c>
       <c r="C90" t="n">
         <v>1.868</v>
       </c>
       <c r="D90" t="n">
-        <v>1.868</v>
+        <v>1.869</v>
       </c>
       <c r="E90" t="n">
         <v>1.868</v>
       </c>
       <c r="F90" t="n">
-        <v>268</v>
+        <v>13507.7572</v>
       </c>
       <c r="G90" t="n">
-        <v>1.867183333333332</v>
+        <v>1.867199999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3824,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3850,10 @@
         <v>1.868</v>
       </c>
       <c r="F91" t="n">
-        <v>308.3404</v>
+        <v>268</v>
       </c>
       <c r="G91" t="n">
-        <v>1.867449999999999</v>
+        <v>1.867183333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3863,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3595,10 +3889,10 @@
         <v>1.868</v>
       </c>
       <c r="F92" t="n">
-        <v>151442.7501</v>
+        <v>308.3404</v>
       </c>
       <c r="G92" t="n">
-        <v>1.867266666666665</v>
+        <v>1.867449999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3902,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3916,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.867</v>
+        <v>1.868</v>
       </c>
       <c r="C93" t="n">
-        <v>1.867</v>
+        <v>1.868</v>
       </c>
       <c r="D93" t="n">
-        <v>1.867</v>
+        <v>1.868</v>
       </c>
       <c r="E93" t="n">
-        <v>1.867</v>
+        <v>1.868</v>
       </c>
       <c r="F93" t="n">
-        <v>25567.8867</v>
+        <v>151442.7501</v>
       </c>
       <c r="G93" t="n">
-        <v>1.867066666666665</v>
+        <v>1.867266666666665</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3941,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3955,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.868</v>
+        <v>1.867</v>
       </c>
       <c r="C94" t="n">
-        <v>1.868</v>
+        <v>1.867</v>
       </c>
       <c r="D94" t="n">
-        <v>1.868</v>
+        <v>1.867</v>
       </c>
       <c r="E94" t="n">
-        <v>1.868</v>
+        <v>1.867</v>
       </c>
       <c r="F94" t="n">
-        <v>7950.1233</v>
+        <v>25567.8867</v>
       </c>
       <c r="G94" t="n">
-        <v>1.866899999999998</v>
+        <v>1.867066666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3980,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,36 +3994,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="C95" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="D95" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="E95" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="F95" t="n">
-        <v>1460.4878</v>
+        <v>7950.1233</v>
       </c>
       <c r="G95" t="n">
-        <v>1.866766666666665</v>
+        <v>1.866899999999998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3730,19 +4036,19 @@
         <v>1.87</v>
       </c>
       <c r="C96" t="n">
-        <v>1.871</v>
+        <v>1.87</v>
       </c>
       <c r="D96" t="n">
-        <v>1.871</v>
+        <v>1.87</v>
       </c>
       <c r="E96" t="n">
         <v>1.87</v>
       </c>
       <c r="F96" t="n">
-        <v>285707.2273252941</v>
+        <v>1460.4878</v>
       </c>
       <c r="G96" t="n">
-        <v>1.866649999999999</v>
+        <v>1.866766666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3751,12 +4057,10 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>1.868</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
@@ -3768,19 +4072,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.877</v>
+        <v>1.87</v>
       </c>
       <c r="C97" t="n">
-        <v>1.878</v>
+        <v>1.871</v>
       </c>
       <c r="D97" t="n">
-        <v>1.878</v>
+        <v>1.871</v>
       </c>
       <c r="E97" t="n">
-        <v>1.877</v>
+        <v>1.87</v>
       </c>
       <c r="F97" t="n">
-        <v>292143.2463</v>
+        <v>285707.2273252941</v>
       </c>
       <c r="G97" t="n">
         <v>1.866649999999999</v>
@@ -3792,12 +4096,10 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>1.868</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -3809,22 +4111,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.879</v>
+        <v>1.877</v>
       </c>
       <c r="C98" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="D98" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="E98" t="n">
-        <v>1.879</v>
+        <v>1.877</v>
       </c>
       <c r="F98" t="n">
-        <v>823400.4264999999</v>
+        <v>292143.2463</v>
       </c>
       <c r="G98" t="n">
-        <v>1.866949999999999</v>
+        <v>1.866649999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3834,7 +4136,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +4150,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.885</v>
+        <v>1.879</v>
       </c>
       <c r="C99" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="D99" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="E99" t="n">
-        <v>1.885</v>
+        <v>1.879</v>
       </c>
       <c r="F99" t="n">
-        <v>500000</v>
+        <v>823400.4264999999</v>
       </c>
       <c r="G99" t="n">
-        <v>1.867083333333332</v>
+        <v>1.866949999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3869,7 +4175,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3879,22 +4189,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.889</v>
+        <v>1.885</v>
       </c>
       <c r="C100" t="n">
-        <v>1.889</v>
+        <v>1.885</v>
       </c>
       <c r="D100" t="n">
-        <v>1.889</v>
+        <v>1.885</v>
       </c>
       <c r="E100" t="n">
-        <v>1.889</v>
+        <v>1.885</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>500000</v>
       </c>
       <c r="G100" t="n">
-        <v>1.867533333333332</v>
+        <v>1.867083333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3904,7 +4214,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +4228,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="C101" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="D101" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="E101" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="F101" t="n">
-        <v>133773.2664</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="n">
-        <v>1.867999999999999</v>
+        <v>1.867533333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3939,7 +4253,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3961,10 +4279,10 @@
         <v>1.89</v>
       </c>
       <c r="F102" t="n">
-        <v>70117.34149999999</v>
+        <v>133773.2664</v>
       </c>
       <c r="G102" t="n">
-        <v>1.868483333333332</v>
+        <v>1.867999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3974,7 +4292,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3996,10 +4318,10 @@
         <v>1.89</v>
       </c>
       <c r="F103" t="n">
-        <v>24513.4359</v>
+        <v>70117.34149999999</v>
       </c>
       <c r="G103" t="n">
-        <v>1.868966666666665</v>
+        <v>1.868483333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4009,7 +4331,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4019,22 +4345,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="C104" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="D104" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="E104" t="n">
-        <v>1.868</v>
+        <v>1.89</v>
       </c>
       <c r="F104" t="n">
-        <v>918172.1621</v>
+        <v>24513.4359</v>
       </c>
       <c r="G104" t="n">
-        <v>1.869433333333332</v>
+        <v>1.868966666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4044,7 +4370,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4066,10 +4396,10 @@
         <v>1.868</v>
       </c>
       <c r="F105" t="n">
-        <v>2730300</v>
+        <v>918172.1621</v>
       </c>
       <c r="G105" t="n">
-        <v>1.869633333333332</v>
+        <v>1.869433333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4079,7 +4409,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4089,10 +4423,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.868</v>
+        <v>1.889</v>
       </c>
       <c r="C106" t="n">
-        <v>1.868</v>
+        <v>1.889</v>
       </c>
       <c r="D106" t="n">
         <v>1.889</v>
@@ -4101,10 +4435,10 @@
         <v>1.868</v>
       </c>
       <c r="F106" t="n">
-        <v>3525816</v>
+        <v>2730300</v>
       </c>
       <c r="G106" t="n">
-        <v>1.869466666666665</v>
+        <v>1.869633333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4114,7 +4448,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4462,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.887</v>
+        <v>1.868</v>
       </c>
       <c r="C107" t="n">
-        <v>1.887</v>
+        <v>1.868</v>
       </c>
       <c r="D107" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="E107" t="n">
-        <v>1.887</v>
+        <v>1.868</v>
       </c>
       <c r="F107" t="n">
-        <v>8947.436799999999</v>
+        <v>3525816</v>
       </c>
       <c r="G107" t="n">
-        <v>1.869633333333332</v>
+        <v>1.869466666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4149,7 +4487,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4162,19 +4504,19 @@
         <v>1.887</v>
       </c>
       <c r="C108" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="D108" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="E108" t="n">
         <v>1.887</v>
       </c>
       <c r="F108" t="n">
-        <v>278500.065</v>
+        <v>8947.436799999999</v>
       </c>
       <c r="G108" t="n">
-        <v>1.869833333333332</v>
+        <v>1.869633333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4184,7 +4526,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4197,19 +4543,19 @@
         <v>1.887</v>
       </c>
       <c r="C109" t="n">
-        <v>1.885</v>
+        <v>1.89</v>
       </c>
       <c r="D109" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E109" t="n">
         <v>1.887</v>
       </c>
-      <c r="E109" t="n">
-        <v>1.885</v>
-      </c>
       <c r="F109" t="n">
-        <v>188982.8267</v>
+        <v>278500.065</v>
       </c>
       <c r="G109" t="n">
-        <v>1.870166666666665</v>
+        <v>1.869833333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4219,7 +4565,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4229,22 +4579,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="C110" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="D110" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="E110" t="n">
-        <v>1.89</v>
+        <v>1.885</v>
       </c>
       <c r="F110" t="n">
-        <v>171891.5568</v>
+        <v>188982.8267</v>
       </c>
       <c r="G110" t="n">
-        <v>1.870366666666665</v>
+        <v>1.870166666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4254,7 +4604,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4276,10 +4630,10 @@
         <v>1.89</v>
       </c>
       <c r="F111" t="n">
-        <v>109510.1095</v>
+        <v>171891.5568</v>
       </c>
       <c r="G111" t="n">
-        <v>1.870599999999999</v>
+        <v>1.870366666666665</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4289,7 +4643,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4299,22 +4657,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="C112" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="D112" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="E112" t="n">
-        <v>1.893</v>
+        <v>1.89</v>
       </c>
       <c r="F112" t="n">
-        <v>289187.9866</v>
+        <v>109510.1095</v>
       </c>
       <c r="G112" t="n">
-        <v>1.871066666666665</v>
+        <v>1.870599999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4324,7 +4682,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4334,22 +4696,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="C113" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="D113" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="E113" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="F113" t="n">
-        <v>271843.4072</v>
+        <v>289187.9866</v>
       </c>
       <c r="G113" t="n">
-        <v>1.871466666666666</v>
+        <v>1.871066666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4359,7 +4721,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4369,22 +4735,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="C114" t="n">
-        <v>1.888</v>
+        <v>1.9</v>
       </c>
       <c r="D114" t="n">
-        <v>1.904</v>
+        <v>1.9</v>
       </c>
       <c r="E114" t="n">
-        <v>1.888</v>
+        <v>1.9</v>
       </c>
       <c r="F114" t="n">
-        <v>1711703.4058</v>
+        <v>271843.4072</v>
       </c>
       <c r="G114" t="n">
-        <v>1.871666666666665</v>
+        <v>1.871466666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4394,7 +4760,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4404,7 +4774,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.904</v>
+        <v>1.89</v>
       </c>
       <c r="C115" t="n">
         <v>1.888</v>
@@ -4416,20 +4786,24 @@
         <v>1.888</v>
       </c>
       <c r="F115" t="n">
-        <v>1388192</v>
+        <v>1711703.4058</v>
       </c>
       <c r="G115" t="n">
-        <v>1.871866666666665</v>
+        <v>1.871666666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4451,20 +4825,24 @@
         <v>1.888</v>
       </c>
       <c r="F116" t="n">
-        <v>2069525</v>
+        <v>1388192</v>
       </c>
       <c r="G116" t="n">
-        <v>1.872249999999999</v>
+        <v>1.871866666666665</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4486,10 +4864,10 @@
         <v>1.888</v>
       </c>
       <c r="F117" t="n">
-        <v>721627.0845999999</v>
+        <v>2069525</v>
       </c>
       <c r="G117" t="n">
-        <v>1.872466666666666</v>
+        <v>1.872249999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4499,7 +4877,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4509,22 +4891,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="C118" t="n">
-        <v>1.903</v>
+        <v>1.888</v>
       </c>
       <c r="D118" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="E118" t="n">
-        <v>1.903</v>
+        <v>1.888</v>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>721627.0845999999</v>
       </c>
       <c r="G118" t="n">
-        <v>1.872949999999999</v>
+        <v>1.872466666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4534,7 +4916,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4556,10 +4942,10 @@
         <v>1.903</v>
       </c>
       <c r="F119" t="n">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="n">
-        <v>1.873533333333333</v>
+        <v>1.872949999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4569,7 +4955,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4591,20 +4981,24 @@
         <v>1.903</v>
       </c>
       <c r="F120" t="n">
-        <v>128060.4185</v>
+        <v>100000</v>
       </c>
       <c r="G120" t="n">
-        <v>1.87415</v>
+        <v>1.873533333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4626,10 +5020,10 @@
         <v>1.903</v>
       </c>
       <c r="F121" t="n">
-        <v>558203.2968</v>
+        <v>128060.4185</v>
       </c>
       <c r="G121" t="n">
-        <v>1.874766666666666</v>
+        <v>1.87415</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4639,7 +5033,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4649,7 +5047,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.902</v>
+        <v>1.903</v>
       </c>
       <c r="C122" t="n">
         <v>1.903</v>
@@ -4658,13 +5056,13 @@
         <v>1.903</v>
       </c>
       <c r="E122" t="n">
-        <v>1.902</v>
+        <v>1.903</v>
       </c>
       <c r="F122" t="n">
-        <v>112019.4429847609</v>
+        <v>558203.2968</v>
       </c>
       <c r="G122" t="n">
-        <v>1.875233333333333</v>
+        <v>1.874766666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4674,7 +5072,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +5086,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.889</v>
+        <v>1.902</v>
       </c>
       <c r="C123" t="n">
-        <v>1.889</v>
+        <v>1.903</v>
       </c>
       <c r="D123" t="n">
-        <v>1.889</v>
+        <v>1.903</v>
       </c>
       <c r="E123" t="n">
-        <v>1.889</v>
+        <v>1.902</v>
       </c>
       <c r="F123" t="n">
-        <v>190000</v>
+        <v>112019.4429847609</v>
       </c>
       <c r="G123" t="n">
-        <v>1.87545</v>
+        <v>1.875233333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4709,7 +5111,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4731,23 +5137,25 @@
         <v>1.889</v>
       </c>
       <c r="F124" t="n">
-        <v>1255.0861</v>
+        <v>190000</v>
       </c>
       <c r="G124" t="n">
-        <v>1.875666666666666</v>
+        <v>1.87545</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4766,10 +5174,10 @@
         <v>1.889</v>
       </c>
       <c r="F125" t="n">
-        <v>435467.3137</v>
+        <v>1255.0861</v>
       </c>
       <c r="G125" t="n">
-        <v>1.875883333333333</v>
+        <v>1.875666666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4801,10 +5209,10 @@
         <v>1.889</v>
       </c>
       <c r="F126" t="n">
-        <v>80000</v>
+        <v>435467.3137</v>
       </c>
       <c r="G126" t="n">
-        <v>1.876099999999999</v>
+        <v>1.875883333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4824,22 +5232,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="C127" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="D127" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="E127" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="F127" t="n">
-        <v>71810.48420000001</v>
+        <v>80000</v>
       </c>
       <c r="G127" t="n">
-        <v>1.876383333333332</v>
+        <v>1.876099999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4859,22 +5267,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.902</v>
+        <v>1.888</v>
       </c>
       <c r="C128" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="D128" t="n">
-        <v>1.903</v>
+        <v>1.888</v>
       </c>
       <c r="E128" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="F128" t="n">
-        <v>1396813</v>
+        <v>71810.48420000001</v>
       </c>
       <c r="G128" t="n">
-        <v>1.876783333333332</v>
+        <v>1.876383333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4900,16 +5308,16 @@
         <v>1.886</v>
       </c>
       <c r="D129" t="n">
-        <v>1.902</v>
+        <v>1.903</v>
       </c>
       <c r="E129" t="n">
         <v>1.886</v>
       </c>
       <c r="F129" t="n">
-        <v>722741</v>
+        <v>1396813</v>
       </c>
       <c r="G129" t="n">
-        <v>1.877216666666666</v>
+        <v>1.876783333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4929,22 +5337,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.885</v>
+        <v>1.902</v>
       </c>
       <c r="C130" t="n">
-        <v>1.875</v>
+        <v>1.886</v>
       </c>
       <c r="D130" t="n">
-        <v>1.885</v>
+        <v>1.902</v>
       </c>
       <c r="E130" t="n">
-        <v>1.875</v>
+        <v>1.886</v>
       </c>
       <c r="F130" t="n">
-        <v>151442.7501</v>
+        <v>722741</v>
       </c>
       <c r="G130" t="n">
-        <v>1.877466666666666</v>
+        <v>1.877216666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4964,22 +5372,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.902</v>
+        <v>1.885</v>
       </c>
       <c r="C131" t="n">
-        <v>1.901</v>
+        <v>1.875</v>
       </c>
       <c r="D131" t="n">
-        <v>1.902</v>
+        <v>1.885</v>
       </c>
       <c r="E131" t="n">
-        <v>1.901</v>
+        <v>1.875</v>
       </c>
       <c r="F131" t="n">
-        <v>527</v>
+        <v>151442.7501</v>
       </c>
       <c r="G131" t="n">
-        <v>1.878116666666666</v>
+        <v>1.877466666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4999,22 +5407,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.88</v>
+        <v>1.902</v>
       </c>
       <c r="C132" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="D132" t="n">
-        <v>1.88</v>
+        <v>1.902</v>
       </c>
       <c r="E132" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="F132" t="n">
-        <v>539.2476</v>
+        <v>527</v>
       </c>
       <c r="G132" t="n">
-        <v>1.878449999999999</v>
+        <v>1.878116666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5037,19 +5445,19 @@
         <v>1.88</v>
       </c>
       <c r="C133" t="n">
-        <v>1.899</v>
+        <v>1.88</v>
       </c>
       <c r="D133" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="E133" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="F133" t="n">
-        <v>885702.49</v>
+        <v>539.2476</v>
       </c>
       <c r="G133" t="n">
-        <v>1.879266666666666</v>
+        <v>1.878449999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5069,22 +5477,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.898</v>
+        <v>1.88</v>
       </c>
       <c r="C134" t="n">
-        <v>1.877</v>
+        <v>1.899</v>
       </c>
       <c r="D134" t="n">
-        <v>1.904</v>
+        <v>1.9</v>
       </c>
       <c r="E134" t="n">
         <v>1.877</v>
       </c>
       <c r="F134" t="n">
-        <v>2873089.982629622</v>
+        <v>885702.49</v>
       </c>
       <c r="G134" t="n">
-        <v>1.879716666666666</v>
+        <v>1.879266666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5104,22 +5512,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C135" t="n">
         <v>1.877</v>
       </c>
-      <c r="C135" t="n">
-        <v>1.903</v>
-      </c>
       <c r="D135" t="n">
-        <v>1.903</v>
+        <v>1.904</v>
       </c>
       <c r="E135" t="n">
         <v>1.877</v>
       </c>
       <c r="F135" t="n">
-        <v>2925603.8154</v>
+        <v>2873089.982629622</v>
       </c>
       <c r="G135" t="n">
-        <v>1.880349999999999</v>
+        <v>1.879716666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5139,10 +5547,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C136" t="n">
         <v>1.903</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.877</v>
       </c>
       <c r="D136" t="n">
         <v>1.903</v>
@@ -5151,10 +5559,10 @@
         <v>1.877</v>
       </c>
       <c r="F136" t="n">
-        <v>709574</v>
+        <v>2925603.8154</v>
       </c>
       <c r="G136" t="n">
-        <v>1.880766666666666</v>
+        <v>1.880349999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5174,22 +5582,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.902</v>
+        <v>1.903</v>
       </c>
       <c r="C137" t="n">
-        <v>1.902</v>
+        <v>1.877</v>
       </c>
       <c r="D137" t="n">
-        <v>1.902</v>
+        <v>1.903</v>
       </c>
       <c r="E137" t="n">
-        <v>1.902</v>
+        <v>1.877</v>
       </c>
       <c r="F137" t="n">
-        <v>263</v>
+        <v>709574</v>
       </c>
       <c r="G137" t="n">
-        <v>1.881583333333332</v>
+        <v>1.880766666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5209,22 +5617,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.878</v>
+        <v>1.902</v>
       </c>
       <c r="C138" t="n">
-        <v>1.877</v>
+        <v>1.902</v>
       </c>
       <c r="D138" t="n">
-        <v>1.878</v>
+        <v>1.902</v>
       </c>
       <c r="E138" t="n">
-        <v>1.877</v>
+        <v>1.902</v>
       </c>
       <c r="F138" t="n">
-        <v>1110128.8384</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
-        <v>1.881716666666666</v>
+        <v>1.881583333333332</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5244,22 +5652,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.875</v>
+        <v>1.878</v>
       </c>
       <c r="C139" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="D139" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="E139" t="n">
-        <v>1.872</v>
+        <v>1.877</v>
       </c>
       <c r="F139" t="n">
-        <v>174585.3956</v>
+        <v>1110128.8384</v>
       </c>
       <c r="G139" t="n">
-        <v>1.882166666666666</v>
+        <v>1.881716666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5279,22 +5687,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.888</v>
+        <v>1.875</v>
       </c>
       <c r="C140" t="n">
-        <v>1.866</v>
+        <v>1.88</v>
       </c>
       <c r="D140" t="n">
-        <v>1.888</v>
+        <v>1.88</v>
       </c>
       <c r="E140" t="n">
-        <v>1.866</v>
+        <v>1.872</v>
       </c>
       <c r="F140" t="n">
-        <v>836110.4291</v>
+        <v>174585.3956</v>
       </c>
       <c r="G140" t="n">
-        <v>1.882133333333333</v>
+        <v>1.882166666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5314,22 +5722,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.862</v>
+        <v>1.888</v>
       </c>
       <c r="C141" t="n">
-        <v>1.862</v>
+        <v>1.866</v>
       </c>
       <c r="D141" t="n">
-        <v>1.862</v>
+        <v>1.888</v>
       </c>
       <c r="E141" t="n">
-        <v>1.862</v>
+        <v>1.866</v>
       </c>
       <c r="F141" t="n">
-        <v>79628.6369</v>
+        <v>836110.4291</v>
       </c>
       <c r="G141" t="n">
-        <v>1.882033333333333</v>
+        <v>1.882133333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5361,10 +5769,10 @@
         <v>1.862</v>
       </c>
       <c r="F142" t="n">
-        <v>1516850.3771</v>
+        <v>79628.6369</v>
       </c>
       <c r="G142" t="n">
-        <v>1.882149999999999</v>
+        <v>1.882033333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5384,22 +5792,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.874</v>
+        <v>1.862</v>
       </c>
       <c r="C143" t="n">
-        <v>1.874</v>
+        <v>1.862</v>
       </c>
       <c r="D143" t="n">
-        <v>1.874</v>
+        <v>1.862</v>
       </c>
       <c r="E143" t="n">
-        <v>1.874</v>
+        <v>1.862</v>
       </c>
       <c r="F143" t="n">
-        <v>1000</v>
+        <v>1516850.3771</v>
       </c>
       <c r="G143" t="n">
-        <v>1.882466666666666</v>
+        <v>1.882149999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5422,19 +5830,19 @@
         <v>1.874</v>
       </c>
       <c r="C144" t="n">
-        <v>1.871</v>
+        <v>1.874</v>
       </c>
       <c r="D144" t="n">
-        <v>1.889</v>
+        <v>1.874</v>
       </c>
       <c r="E144" t="n">
-        <v>1.871</v>
+        <v>1.874</v>
       </c>
       <c r="F144" t="n">
-        <v>4152423.002</v>
+        <v>1000</v>
       </c>
       <c r="G144" t="n">
-        <v>1.882749999999999</v>
+        <v>1.882466666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5454,7 +5862,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.889</v>
+        <v>1.874</v>
       </c>
       <c r="C145" t="n">
         <v>1.871</v>
@@ -5466,10 +5874,10 @@
         <v>1.871</v>
       </c>
       <c r="F145" t="n">
-        <v>2950085</v>
+        <v>4152423.002</v>
       </c>
       <c r="G145" t="n">
-        <v>1.883033333333332</v>
+        <v>1.882749999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5501,10 +5909,10 @@
         <v>1.871</v>
       </c>
       <c r="F146" t="n">
-        <v>2330980</v>
+        <v>2950085</v>
       </c>
       <c r="G146" t="n">
-        <v>1.883066666666665</v>
+        <v>1.883033333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5524,22 +5932,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="C147" t="n">
-        <v>1.89</v>
+        <v>1.871</v>
       </c>
       <c r="D147" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="E147" t="n">
-        <v>1.89</v>
+        <v>1.871</v>
       </c>
       <c r="F147" t="n">
-        <v>108469.2506</v>
+        <v>2330980</v>
       </c>
       <c r="G147" t="n">
-        <v>1.883416666666665</v>
+        <v>1.883066666666665</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5559,22 +5967,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="C148" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="D148" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="E148" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F148" t="n">
-        <v>98141.59329999999</v>
+        <v>108469.2506</v>
       </c>
       <c r="G148" t="n">
-        <v>1.883849999999999</v>
+        <v>1.883416666666665</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5606,10 +6014,10 @@
         <v>1.88</v>
       </c>
       <c r="F149" t="n">
-        <v>459580.2115</v>
+        <v>98141.59329999999</v>
       </c>
       <c r="G149" t="n">
-        <v>1.884049999999999</v>
+        <v>1.883849999999999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5632,19 +6040,19 @@
         <v>1.88</v>
       </c>
       <c r="C150" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="D150" t="n">
-        <v>1.901</v>
+        <v>1.88</v>
       </c>
       <c r="E150" t="n">
         <v>1.88</v>
       </c>
       <c r="F150" t="n">
-        <v>2210287.2605</v>
+        <v>459580.2115</v>
       </c>
       <c r="G150" t="n">
-        <v>1.884266666666665</v>
+        <v>1.884049999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5664,22 +6072,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.901</v>
+        <v>1.88</v>
       </c>
       <c r="C151" t="n">
-        <v>1.901</v>
+        <v>1.881</v>
       </c>
       <c r="D151" t="n">
         <v>1.901</v>
       </c>
       <c r="E151" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="F151" t="n">
-        <v>2805159</v>
+        <v>2210287.2605</v>
       </c>
       <c r="G151" t="n">
-        <v>1.884816666666665</v>
+        <v>1.884266666666665</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5702,19 +6110,19 @@
         <v>1.901</v>
       </c>
       <c r="C152" t="n">
-        <v>1.902</v>
+        <v>1.901</v>
       </c>
       <c r="D152" t="n">
-        <v>1.902</v>
+        <v>1.901</v>
       </c>
       <c r="E152" t="n">
         <v>1.881</v>
       </c>
       <c r="F152" t="n">
-        <v>2879444.666</v>
+        <v>2805159</v>
       </c>
       <c r="G152" t="n">
-        <v>1.885383333333332</v>
+        <v>1.884816666666665</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5734,22 +6142,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C153" t="n">
         <v>1.902</v>
       </c>
-      <c r="C153" t="n">
-        <v>1.903</v>
-      </c>
       <c r="D153" t="n">
-        <v>1.903</v>
+        <v>1.902</v>
       </c>
       <c r="E153" t="n">
-        <v>1.902</v>
+        <v>1.881</v>
       </c>
       <c r="F153" t="n">
-        <v>376196.9075</v>
+        <v>2879444.666</v>
       </c>
       <c r="G153" t="n">
-        <v>1.885983333333332</v>
+        <v>1.885383333333332</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5772,19 +6180,19 @@
         <v>1.902</v>
       </c>
       <c r="C154" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E154" t="n">
         <v>1.902</v>
       </c>
-      <c r="D154" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.886</v>
-      </c>
       <c r="F154" t="n">
-        <v>1502182</v>
+        <v>376196.9075</v>
       </c>
       <c r="G154" t="n">
-        <v>1.886549999999999</v>
+        <v>1.885983333333332</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5804,10 +6212,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.886</v>
+        <v>1.902</v>
       </c>
       <c r="C155" t="n">
-        <v>1.886</v>
+        <v>1.902</v>
       </c>
       <c r="D155" t="n">
         <v>1.902</v>
@@ -5816,10 +6224,10 @@
         <v>1.886</v>
       </c>
       <c r="F155" t="n">
-        <v>3376641</v>
+        <v>1502182</v>
       </c>
       <c r="G155" t="n">
-        <v>1.886816666666665</v>
+        <v>1.886549999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5839,22 +6247,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D156" t="n">
         <v>1.902</v>
       </c>
-      <c r="C156" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.905</v>
-      </c>
       <c r="E156" t="n">
-        <v>1.888</v>
+        <v>1.886</v>
       </c>
       <c r="F156" t="n">
-        <v>1366090.930686966</v>
+        <v>3376641</v>
       </c>
       <c r="G156" t="n">
-        <v>1.887366666666666</v>
+        <v>1.886816666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5874,22 +6282,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.888</v>
+        <v>1.902</v>
       </c>
       <c r="C157" t="n">
         <v>1.904</v>
       </c>
       <c r="D157" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="E157" t="n">
         <v>1.888</v>
       </c>
       <c r="F157" t="n">
-        <v>1274194</v>
+        <v>1366090.930686966</v>
       </c>
       <c r="G157" t="n">
-        <v>1.887799999999999</v>
+        <v>1.887366666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5909,22 +6317,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.905</v>
+        <v>1.888</v>
       </c>
       <c r="C158" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="D158" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="E158" t="n">
-        <v>1.905</v>
+        <v>1.888</v>
       </c>
       <c r="F158" t="n">
-        <v>166813.1403</v>
+        <v>1274194</v>
       </c>
       <c r="G158" t="n">
-        <v>1.888216666666666</v>
+        <v>1.887799999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5956,10 +6364,10 @@
         <v>1.905</v>
       </c>
       <c r="F159" t="n">
-        <v>125109.8551618373</v>
+        <v>166813.1403</v>
       </c>
       <c r="G159" t="n">
-        <v>1.888549999999999</v>
+        <v>1.888216666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5991,10 +6399,10 @@
         <v>1.905</v>
       </c>
       <c r="F160" t="n">
-        <v>3.8162729658791e-05</v>
+        <v>125109.8551618373</v>
       </c>
       <c r="G160" t="n">
-        <v>1.888816666666666</v>
+        <v>1.888549999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6014,22 +6422,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="C161" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="D161" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="E161" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="F161" t="n">
-        <v>26194.9642</v>
+        <v>3.8162729658791e-05</v>
       </c>
       <c r="G161" t="n">
-        <v>1.889049999999999</v>
+        <v>1.888816666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6049,19 +6457,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.89</v>
+        <v>1.904</v>
       </c>
       <c r="C162" t="n">
-        <v>1.89</v>
+        <v>1.904</v>
       </c>
       <c r="D162" t="n">
-        <v>1.89</v>
+        <v>1.904</v>
       </c>
       <c r="E162" t="n">
-        <v>1.89</v>
+        <v>1.904</v>
       </c>
       <c r="F162" t="n">
-        <v>358983.1743</v>
+        <v>26194.9642</v>
       </c>
       <c r="G162" t="n">
         <v>1.889049999999999</v>
@@ -6096,7 +6504,7 @@
         <v>1.89</v>
       </c>
       <c r="F163" t="n">
-        <v>4597928.1901</v>
+        <v>358983.1743</v>
       </c>
       <c r="G163" t="n">
         <v>1.889049999999999</v>
@@ -6119,22 +6527,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.888</v>
+        <v>1.89</v>
       </c>
       <c r="C164" t="n">
-        <v>1.859</v>
+        <v>1.89</v>
       </c>
       <c r="D164" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="E164" t="n">
-        <v>1.859</v>
+        <v>1.89</v>
       </c>
       <c r="F164" t="n">
-        <v>875784.443</v>
+        <v>4597928.1901</v>
       </c>
       <c r="G164" t="n">
-        <v>1.888549999999999</v>
+        <v>1.889049999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6154,22 +6562,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.89</v>
+        <v>1.888</v>
       </c>
       <c r="C165" t="n">
-        <v>1.89</v>
+        <v>1.859</v>
       </c>
       <c r="D165" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="E165" t="n">
-        <v>1.89</v>
+        <v>1.859</v>
       </c>
       <c r="F165" t="n">
-        <v>32522.2679</v>
+        <v>875784.443</v>
       </c>
       <c r="G165" t="n">
-        <v>1.888566666666666</v>
+        <v>1.888549999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6189,22 +6597,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C166" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="D166" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="E166" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F166" t="n">
-        <v>264</v>
+        <v>32522.2679</v>
       </c>
       <c r="G166" t="n">
-        <v>1.889099999999999</v>
+        <v>1.888566666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6236,10 +6644,10 @@
         <v>1.9</v>
       </c>
       <c r="F167" t="n">
-        <v>7984.7092</v>
+        <v>264</v>
       </c>
       <c r="G167" t="n">
-        <v>1.889316666666666</v>
+        <v>1.889099999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6259,22 +6667,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="C168" t="n">
-        <v>1.903</v>
+        <v>1.9</v>
       </c>
       <c r="D168" t="n">
-        <v>1.903</v>
+        <v>1.9</v>
       </c>
       <c r="E168" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="F168" t="n">
-        <v>11361.6222</v>
+        <v>7984.7092</v>
       </c>
       <c r="G168" t="n">
-        <v>1.889533333333333</v>
+        <v>1.889316666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6297,19 +6705,19 @@
         <v>1.902</v>
       </c>
       <c r="C169" t="n">
-        <v>1.902</v>
+        <v>1.903</v>
       </c>
       <c r="D169" t="n">
-        <v>1.902</v>
+        <v>1.903</v>
       </c>
       <c r="E169" t="n">
         <v>1.902</v>
       </c>
       <c r="F169" t="n">
-        <v>1000</v>
+        <v>11361.6222</v>
       </c>
       <c r="G169" t="n">
-        <v>1.889816666666666</v>
+        <v>1.889533333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6329,22 +6737,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="C170" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="D170" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="E170" t="n">
-        <v>1.872</v>
+        <v>1.902</v>
       </c>
       <c r="F170" t="n">
-        <v>2358033</v>
+        <v>1000</v>
       </c>
       <c r="G170" t="n">
-        <v>1.889999999999999</v>
+        <v>1.889816666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6364,22 +6772,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.872</v>
+        <v>1.901</v>
       </c>
       <c r="C171" t="n">
-        <v>1.872</v>
+        <v>1.901</v>
       </c>
       <c r="D171" t="n">
         <v>1.901</v>
       </c>
       <c r="E171" t="n">
-        <v>1.871</v>
+        <v>1.872</v>
       </c>
       <c r="F171" t="n">
-        <v>3642887</v>
+        <v>2358033</v>
       </c>
       <c r="G171" t="n">
-        <v>1.889699999999999</v>
+        <v>1.889999999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6399,22 +6807,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.899</v>
+        <v>1.872</v>
       </c>
       <c r="C172" t="n">
-        <v>1.871</v>
+        <v>1.872</v>
       </c>
       <c r="D172" t="n">
-        <v>1.899</v>
+        <v>1.901</v>
       </c>
       <c r="E172" t="n">
         <v>1.871</v>
       </c>
       <c r="F172" t="n">
-        <v>1497853</v>
+        <v>3642887</v>
       </c>
       <c r="G172" t="n">
-        <v>1.889333333333332</v>
+        <v>1.889699999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6437,19 +6845,19 @@
         <v>1.899</v>
       </c>
       <c r="C173" t="n">
-        <v>1.897</v>
+        <v>1.871</v>
       </c>
       <c r="D173" t="n">
         <v>1.899</v>
       </c>
       <c r="E173" t="n">
-        <v>1.897</v>
+        <v>1.871</v>
       </c>
       <c r="F173" t="n">
-        <v>528</v>
+        <v>1497853</v>
       </c>
       <c r="G173" t="n">
-        <v>1.889283333333332</v>
+        <v>1.889333333333332</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6469,22 +6877,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="C174" t="n">
         <v>1.897</v>
       </c>
       <c r="D174" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="E174" t="n">
         <v>1.897</v>
       </c>
       <c r="F174" t="n">
-        <v>265</v>
+        <v>528</v>
       </c>
       <c r="G174" t="n">
-        <v>1.889433333333332</v>
+        <v>1.889283333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6504,22 +6912,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.899</v>
+        <v>1.897</v>
       </c>
       <c r="C175" t="n">
-        <v>1.899</v>
+        <v>1.897</v>
       </c>
       <c r="D175" t="n">
-        <v>1.899</v>
+        <v>1.897</v>
       </c>
       <c r="E175" t="n">
-        <v>1.872</v>
+        <v>1.897</v>
       </c>
       <c r="F175" t="n">
-        <v>2361573</v>
+        <v>265</v>
       </c>
       <c r="G175" t="n">
-        <v>1.889616666666666</v>
+        <v>1.889433333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6539,7 +6947,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.872</v>
+        <v>1.899</v>
       </c>
       <c r="C176" t="n">
         <v>1.899</v>
@@ -6551,10 +6959,10 @@
         <v>1.872</v>
       </c>
       <c r="F176" t="n">
-        <v>2921962</v>
+        <v>2361573</v>
       </c>
       <c r="G176" t="n">
-        <v>1.889799999999999</v>
+        <v>1.889616666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6577,7 +6985,7 @@
         <v>1.872</v>
       </c>
       <c r="C177" t="n">
-        <v>1.872</v>
+        <v>1.899</v>
       </c>
       <c r="D177" t="n">
         <v>1.899</v>
@@ -6586,10 +6994,10 @@
         <v>1.872</v>
       </c>
       <c r="F177" t="n">
-        <v>2045901</v>
+        <v>2921962</v>
       </c>
       <c r="G177" t="n">
-        <v>1.889533333333332</v>
+        <v>1.889799999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6609,22 +7017,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.897</v>
+        <v>1.872</v>
       </c>
       <c r="C178" t="n">
-        <v>1.897</v>
+        <v>1.872</v>
       </c>
       <c r="D178" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="E178" t="n">
-        <v>1.897</v>
+        <v>1.872</v>
       </c>
       <c r="F178" t="n">
-        <v>790.621</v>
+        <v>2045901</v>
       </c>
       <c r="G178" t="n">
-        <v>1.889433333333332</v>
+        <v>1.889533333333332</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6644,22 +7052,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.896</v>
+        <v>1.897</v>
       </c>
       <c r="C179" t="n">
-        <v>1.86</v>
+        <v>1.897</v>
       </c>
       <c r="D179" t="n">
-        <v>1.896</v>
+        <v>1.897</v>
       </c>
       <c r="E179" t="n">
-        <v>1.86</v>
+        <v>1.897</v>
       </c>
       <c r="F179" t="n">
-        <v>2804252</v>
+        <v>790.621</v>
       </c>
       <c r="G179" t="n">
-        <v>1.888716666666665</v>
+        <v>1.889433333333332</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6682,19 +7090,19 @@
         <v>1.896</v>
       </c>
       <c r="C180" t="n">
-        <v>1.872</v>
+        <v>1.86</v>
       </c>
       <c r="D180" t="n">
-        <v>1.901</v>
+        <v>1.896</v>
       </c>
       <c r="E180" t="n">
         <v>1.86</v>
       </c>
       <c r="F180" t="n">
-        <v>2876304</v>
+        <v>2804252</v>
       </c>
       <c r="G180" t="n">
-        <v>1.888199999999999</v>
+        <v>1.888716666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6714,22 +7122,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.9</v>
+        <v>1.896</v>
       </c>
       <c r="C181" t="n">
-        <v>1.871</v>
+        <v>1.872</v>
       </c>
       <c r="D181" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="E181" t="n">
-        <v>1.871</v>
+        <v>1.86</v>
       </c>
       <c r="F181" t="n">
-        <v>1486552.3</v>
+        <v>2876304</v>
       </c>
       <c r="G181" t="n">
-        <v>1.887666666666665</v>
+        <v>1.888199999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6749,22 +7157,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="C182" t="n">
-        <v>1.86</v>
+        <v>1.871</v>
       </c>
       <c r="D182" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="E182" t="n">
-        <v>1.86</v>
+        <v>1.871</v>
       </c>
       <c r="F182" t="n">
-        <v>342121.8459</v>
+        <v>1486552.3</v>
       </c>
       <c r="G182" t="n">
-        <v>1.886949999999998</v>
+        <v>1.887666666666665</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6784,22 +7192,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.859</v>
+        <v>1.86</v>
       </c>
       <c r="C183" t="n">
-        <v>1.856</v>
+        <v>1.86</v>
       </c>
       <c r="D183" t="n">
-        <v>1.859</v>
+        <v>1.86</v>
       </c>
       <c r="E183" t="n">
-        <v>1.856</v>
+        <v>1.86</v>
       </c>
       <c r="F183" t="n">
-        <v>742952.7028</v>
+        <v>342121.8459</v>
       </c>
       <c r="G183" t="n">
-        <v>1.886399999999998</v>
+        <v>1.886949999999998</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6822,19 +7230,19 @@
         <v>1.859</v>
       </c>
       <c r="C184" t="n">
-        <v>1.859</v>
+        <v>1.856</v>
       </c>
       <c r="D184" t="n">
         <v>1.859</v>
       </c>
       <c r="E184" t="n">
-        <v>1.859</v>
+        <v>1.856</v>
       </c>
       <c r="F184" t="n">
-        <v>56234.2099</v>
+        <v>742952.7028</v>
       </c>
       <c r="G184" t="n">
-        <v>1.885899999999998</v>
+        <v>1.886399999999998</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6866,10 +7274,10 @@
         <v>1.859</v>
       </c>
       <c r="F185" t="n">
-        <v>13403.4026</v>
+        <v>56234.2099</v>
       </c>
       <c r="G185" t="n">
-        <v>1.885399999999998</v>
+        <v>1.885899999999998</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6889,22 +7297,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1.866</v>
+        <v>1.859</v>
       </c>
       <c r="C186" t="n">
-        <v>1.87</v>
+        <v>1.859</v>
       </c>
       <c r="D186" t="n">
-        <v>1.87</v>
+        <v>1.859</v>
       </c>
       <c r="E186" t="n">
-        <v>1.866</v>
+        <v>1.859</v>
       </c>
       <c r="F186" t="n">
-        <v>408086.0558</v>
+        <v>13403.4026</v>
       </c>
       <c r="G186" t="n">
-        <v>1.885083333333332</v>
+        <v>1.885399999999998</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6924,22 +7332,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.88</v>
+        <v>1.866</v>
       </c>
       <c r="C187" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="D187" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="E187" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="F187" t="n">
-        <v>760456.6955</v>
+        <v>408086.0558</v>
       </c>
       <c r="G187" t="n">
-        <v>1.885116666666665</v>
+        <v>1.885083333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6959,22 +7367,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.864</v>
+        <v>1.88</v>
       </c>
       <c r="C188" t="n">
-        <v>1.858</v>
+        <v>1.889</v>
       </c>
       <c r="D188" t="n">
-        <v>1.864</v>
+        <v>1.889</v>
       </c>
       <c r="E188" t="n">
-        <v>1.858</v>
+        <v>1.87</v>
       </c>
       <c r="F188" t="n">
-        <v>419235.9819</v>
+        <v>760456.6955</v>
       </c>
       <c r="G188" t="n">
-        <v>1.884649999999998</v>
+        <v>1.885116666666665</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6994,22 +7402,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="C189" t="n">
-        <v>1.859</v>
+        <v>1.858</v>
       </c>
       <c r="D189" t="n">
-        <v>1.878</v>
+        <v>1.864</v>
       </c>
       <c r="E189" t="n">
-        <v>1.859</v>
+        <v>1.858</v>
       </c>
       <c r="F189" t="n">
-        <v>3406388</v>
+        <v>419235.9819</v>
       </c>
       <c r="G189" t="n">
-        <v>1.884199999999999</v>
+        <v>1.884649999999998</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7032,7 +7440,7 @@
         <v>1.878</v>
       </c>
       <c r="C190" t="n">
-        <v>1.878</v>
+        <v>1.859</v>
       </c>
       <c r="D190" t="n">
         <v>1.878</v>
@@ -7041,10 +7449,10 @@
         <v>1.859</v>
       </c>
       <c r="F190" t="n">
-        <v>2260130</v>
+        <v>3406388</v>
       </c>
       <c r="G190" t="n">
-        <v>1.884249999999998</v>
+        <v>1.884199999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7064,22 +7472,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.859</v>
+        <v>1.878</v>
       </c>
       <c r="C191" t="n">
-        <v>1.859</v>
+        <v>1.878</v>
       </c>
       <c r="D191" t="n">
-        <v>1.859</v>
+        <v>1.878</v>
       </c>
       <c r="E191" t="n">
         <v>1.859</v>
       </c>
       <c r="F191" t="n">
-        <v>456900</v>
+        <v>2260130</v>
       </c>
       <c r="G191" t="n">
-        <v>1.883549999999999</v>
+        <v>1.884249999999998</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7099,22 +7507,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.879</v>
+        <v>1.859</v>
       </c>
       <c r="C192" t="n">
-        <v>1.879</v>
+        <v>1.859</v>
       </c>
       <c r="D192" t="n">
-        <v>1.879</v>
+        <v>1.859</v>
       </c>
       <c r="E192" t="n">
-        <v>1.879</v>
+        <v>1.859</v>
       </c>
       <c r="F192" t="n">
-        <v>13403.4026</v>
+        <v>456900</v>
       </c>
       <c r="G192" t="n">
-        <v>1.883533333333332</v>
+        <v>1.883549999999999</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7134,35 +7542,31 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="C193" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="D193" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="E193" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="F193" t="n">
-        <v>822.1011</v>
+        <v>13403.4026</v>
       </c>
       <c r="G193" t="n">
-        <v>1.883216666666665</v>
+        <v>1.883533333333332</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K193" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
@@ -7173,40 +7577,32 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="C194" t="n">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="D194" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="E194" t="n">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="F194" t="n">
-        <v>188186.0175</v>
+        <v>822.1011</v>
       </c>
       <c r="G194" t="n">
-        <v>1.883183333333332</v>
+        <v>1.883216666666665</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K194" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7216,40 +7612,32 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.873</v>
+        <v>1.877</v>
       </c>
       <c r="C195" t="n">
-        <v>1.873</v>
+        <v>1.875</v>
       </c>
       <c r="D195" t="n">
-        <v>1.873</v>
+        <v>1.877</v>
       </c>
       <c r="E195" t="n">
-        <v>1.873</v>
+        <v>1.875</v>
       </c>
       <c r="F195" t="n">
-        <v>2145.5522</v>
+        <v>188186.0175</v>
       </c>
       <c r="G195" t="n">
-        <v>1.882683333333332</v>
+        <v>1.883183333333332</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K195" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7259,22 +7647,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.865</v>
+        <v>1.873</v>
       </c>
       <c r="C196" t="n">
-        <v>1.87</v>
+        <v>1.873</v>
       </c>
       <c r="D196" t="n">
-        <v>1.87</v>
+        <v>1.873</v>
       </c>
       <c r="E196" t="n">
-        <v>1.86</v>
+        <v>1.873</v>
       </c>
       <c r="F196" t="n">
-        <v>242630.7147</v>
+        <v>2145.5522</v>
       </c>
       <c r="G196" t="n">
-        <v>1.882566666666665</v>
+        <v>1.882683333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7283,14 +7671,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7300,22 +7682,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.863</v>
+        <v>1.865</v>
       </c>
       <c r="C197" t="n">
-        <v>1.861</v>
+        <v>1.87</v>
       </c>
       <c r="D197" t="n">
-        <v>1.863</v>
+        <v>1.87</v>
       </c>
       <c r="E197" t="n">
-        <v>1.861</v>
+        <v>1.86</v>
       </c>
       <c r="F197" t="n">
-        <v>9924.049000000001</v>
+        <v>242630.7147</v>
       </c>
       <c r="G197" t="n">
-        <v>1.881883333333332</v>
+        <v>1.882566666666665</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7324,14 +7706,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7341,22 +7717,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.864</v>
+        <v>1.863</v>
       </c>
       <c r="C198" t="n">
-        <v>1.864</v>
+        <v>1.861</v>
       </c>
       <c r="D198" t="n">
-        <v>1.864</v>
+        <v>1.863</v>
       </c>
       <c r="E198" t="n">
-        <v>1.864</v>
+        <v>1.861</v>
       </c>
       <c r="F198" t="n">
-        <v>156912.0866</v>
+        <v>9924.049000000001</v>
       </c>
       <c r="G198" t="n">
-        <v>1.881666666666665</v>
+        <v>1.881883333333332</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7365,14 +7741,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7382,22 +7752,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1.863</v>
+        <v>1.864</v>
       </c>
       <c r="C199" t="n">
-        <v>1.874</v>
+        <v>1.864</v>
       </c>
       <c r="D199" t="n">
-        <v>1.874</v>
+        <v>1.864</v>
       </c>
       <c r="E199" t="n">
-        <v>1.859</v>
+        <v>1.864</v>
       </c>
       <c r="F199" t="n">
-        <v>2185205.3652</v>
+        <v>156912.0866</v>
       </c>
       <c r="G199" t="n">
-        <v>1.881566666666665</v>
+        <v>1.881666666666665</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7406,14 +7776,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7423,10 +7787,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.859</v>
+        <v>1.863</v>
       </c>
       <c r="C200" t="n">
-        <v>1.859</v>
+        <v>1.874</v>
       </c>
       <c r="D200" t="n">
         <v>1.874</v>
@@ -7435,10 +7799,10 @@
         <v>1.859</v>
       </c>
       <c r="F200" t="n">
-        <v>3267745</v>
+        <v>2185205.3652</v>
       </c>
       <c r="G200" t="n">
-        <v>1.881449999999999</v>
+        <v>1.881566666666665</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7447,14 +7811,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7464,22 +7822,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.874</v>
+        <v>1.859</v>
       </c>
       <c r="C201" t="n">
         <v>1.859</v>
       </c>
       <c r="D201" t="n">
-        <v>1.875</v>
+        <v>1.874</v>
       </c>
       <c r="E201" t="n">
         <v>1.859</v>
       </c>
       <c r="F201" t="n">
-        <v>2941814.466666667</v>
+        <v>3267745</v>
       </c>
       <c r="G201" t="n">
-        <v>1.881399999999999</v>
+        <v>1.881449999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7488,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7505,22 +7857,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.859</v>
+        <v>1.874</v>
       </c>
       <c r="C202" t="n">
         <v>1.859</v>
       </c>
       <c r="D202" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="E202" t="n">
-        <v>1.858</v>
+        <v>1.859</v>
       </c>
       <c r="F202" t="n">
-        <v>1687125.122</v>
+        <v>2941814.466666667</v>
       </c>
       <c r="G202" t="n">
-        <v>1.881349999999999</v>
+        <v>1.881399999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7529,14 +7881,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7546,7 +7892,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.874</v>
+        <v>1.859</v>
       </c>
       <c r="C203" t="n">
         <v>1.859</v>
@@ -7555,13 +7901,13 @@
         <v>1.874</v>
       </c>
       <c r="E203" t="n">
-        <v>1.859</v>
+        <v>1.858</v>
       </c>
       <c r="F203" t="n">
-        <v>2850765</v>
+        <v>1687125.122</v>
       </c>
       <c r="G203" t="n">
-        <v>1.881099999999999</v>
+        <v>1.881349999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7570,14 +7916,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7599,24 +7939,24 @@
         <v>1.859</v>
       </c>
       <c r="F204" t="n">
-        <v>2849738</v>
+        <v>2850765</v>
       </c>
       <c r="G204" t="n">
-        <v>1.880899999999999</v>
+        <v>1.881099999999999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="J204" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -7628,22 +7968,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.875</v>
+        <v>1.874</v>
       </c>
       <c r="C205" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="D205" t="n">
-        <v>1.875</v>
+        <v>1.874</v>
       </c>
       <c r="E205" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="F205" t="n">
-        <v>1018.7916</v>
+        <v>2849738</v>
       </c>
       <c r="G205" t="n">
-        <v>1.880966666666666</v>
+        <v>1.880899999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7652,9 +7992,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7669,33 +8007,33 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1018.7916</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.880966666666666</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
         <v>1.859</v>
       </c>
-      <c r="C206" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1495.1028</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1.880766666666666</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7722,10 +8060,10 @@
         <v>1.859</v>
       </c>
       <c r="F207" t="n">
-        <v>49884.9623</v>
+        <v>1495.1028</v>
       </c>
       <c r="G207" t="n">
-        <v>1.880249999999999</v>
+        <v>1.880766666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7734,9 +8072,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7763,10 +8099,10 @@
         <v>1.859</v>
       </c>
       <c r="F208" t="n">
-        <v>135506.4179</v>
+        <v>49884.9623</v>
       </c>
       <c r="G208" t="n">
-        <v>1.879899999999999</v>
+        <v>1.880249999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7775,9 +8111,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7792,22 +8126,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.874</v>
+        <v>1.859</v>
       </c>
       <c r="C209" t="n">
-        <v>1.874</v>
+        <v>1.859</v>
       </c>
       <c r="D209" t="n">
-        <v>1.874</v>
+        <v>1.859</v>
       </c>
       <c r="E209" t="n">
         <v>1.859</v>
       </c>
       <c r="F209" t="n">
-        <v>2165304</v>
+        <v>135506.4179</v>
       </c>
       <c r="G209" t="n">
-        <v>1.879799999999999</v>
+        <v>1.879899999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7816,9 +8150,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,23 +8177,19 @@
         <v>1.859</v>
       </c>
       <c r="F210" t="n">
-        <v>3002684</v>
+        <v>2165304</v>
       </c>
       <c r="G210" t="n">
-        <v>1.879683333333332</v>
+        <v>1.879799999999999</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="K210" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7876,10 +8204,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.859</v>
+        <v>1.874</v>
       </c>
       <c r="C211" t="n">
-        <v>1.859</v>
+        <v>1.874</v>
       </c>
       <c r="D211" t="n">
         <v>1.874</v>
@@ -7888,23 +8216,19 @@
         <v>1.859</v>
       </c>
       <c r="F211" t="n">
-        <v>2750526</v>
+        <v>3002684</v>
       </c>
       <c r="G211" t="n">
-        <v>1.878983333333332</v>
+        <v>1.879683333333332</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="K211" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7919,22 +8243,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="C212" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="D212" t="n">
-        <v>1.875</v>
+        <v>1.874</v>
       </c>
       <c r="E212" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="F212" t="n">
-        <v>267</v>
+        <v>2750526</v>
       </c>
       <c r="G212" t="n">
-        <v>1.878533333333332</v>
+        <v>1.878983333333332</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7943,9 +8267,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,10 +8294,10 @@
         <v>1.875</v>
       </c>
       <c r="F213" t="n">
-        <v>9968.724200000001</v>
+        <v>267</v>
       </c>
       <c r="G213" t="n">
-        <v>1.878066666666665</v>
+        <v>1.878533333333332</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7984,9 +8306,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8004,19 +8324,19 @@
         <v>1.875</v>
       </c>
       <c r="C214" t="n">
-        <v>1.892</v>
+        <v>1.875</v>
       </c>
       <c r="D214" t="n">
-        <v>1.892</v>
+        <v>1.875</v>
       </c>
       <c r="E214" t="n">
-        <v>1.871</v>
+        <v>1.875</v>
       </c>
       <c r="F214" t="n">
-        <v>915661</v>
+        <v>9968.724200000001</v>
       </c>
       <c r="G214" t="n">
-        <v>1.877899999999998</v>
+        <v>1.878066666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8025,9 +8345,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8042,10 +8360,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.871</v>
+        <v>1.875</v>
       </c>
       <c r="C215" t="n">
-        <v>1.873</v>
+        <v>1.892</v>
       </c>
       <c r="D215" t="n">
         <v>1.892</v>
@@ -8054,10 +8372,10 @@
         <v>1.871</v>
       </c>
       <c r="F215" t="n">
-        <v>3314927</v>
+        <v>915661</v>
       </c>
       <c r="G215" t="n">
-        <v>1.877683333333332</v>
+        <v>1.877899999999998</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8066,9 +8384,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,22 +8399,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.892</v>
+        <v>1.871</v>
       </c>
       <c r="C216" t="n">
-        <v>1.891</v>
+        <v>1.873</v>
       </c>
       <c r="D216" t="n">
         <v>1.892</v>
       </c>
       <c r="E216" t="n">
-        <v>1.874</v>
+        <v>1.871</v>
       </c>
       <c r="F216" t="n">
-        <v>2108950</v>
+        <v>3314927</v>
       </c>
       <c r="G216" t="n">
-        <v>1.877466666666666</v>
+        <v>1.877683333333332</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8107,9 +8423,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8124,22 +8438,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.891</v>
+        <v>1.892</v>
       </c>
       <c r="C217" t="n">
         <v>1.891</v>
       </c>
       <c r="D217" t="n">
-        <v>1.891</v>
+        <v>1.892</v>
       </c>
       <c r="E217" t="n">
-        <v>1.891</v>
+        <v>1.874</v>
       </c>
       <c r="F217" t="n">
-        <v>266090.0735</v>
+        <v>2108950</v>
       </c>
       <c r="G217" t="n">
-        <v>1.877249999999999</v>
+        <v>1.877466666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8148,9 +8462,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8168,19 +8480,19 @@
         <v>1.891</v>
       </c>
       <c r="C218" t="n">
-        <v>1.871</v>
+        <v>1.891</v>
       </c>
       <c r="D218" t="n">
         <v>1.891</v>
       </c>
       <c r="E218" t="n">
-        <v>1.871</v>
+        <v>1.891</v>
       </c>
       <c r="F218" t="n">
-        <v>614128</v>
+        <v>266090.0735</v>
       </c>
       <c r="G218" t="n">
-        <v>1.876683333333332</v>
+        <v>1.877249999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8189,9 +8501,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,19 +8519,19 @@
         <v>1.891</v>
       </c>
       <c r="C219" t="n">
-        <v>1.892</v>
+        <v>1.871</v>
       </c>
       <c r="D219" t="n">
-        <v>1.892</v>
+        <v>1.891</v>
       </c>
       <c r="E219" t="n">
-        <v>1.891</v>
+        <v>1.871</v>
       </c>
       <c r="F219" t="n">
-        <v>11989.7035</v>
+        <v>614128</v>
       </c>
       <c r="G219" t="n">
-        <v>1.876466666666665</v>
+        <v>1.876683333333332</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8230,9 +8540,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8247,22 +8555,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C220" t="n">
         <v>1.892</v>
       </c>
-      <c r="C220" t="n">
-        <v>1.893</v>
-      </c>
       <c r="D220" t="n">
-        <v>1.893</v>
+        <v>1.892</v>
       </c>
       <c r="E220" t="n">
-        <v>1.892</v>
+        <v>1.891</v>
       </c>
       <c r="F220" t="n">
-        <v>19614.7553</v>
+        <v>11989.7035</v>
       </c>
       <c r="G220" t="n">
-        <v>1.876266666666665</v>
+        <v>1.876466666666665</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8271,9 +8579,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8288,7 +8594,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.893</v>
+        <v>1.892</v>
       </c>
       <c r="C221" t="n">
         <v>1.893</v>
@@ -8297,13 +8603,13 @@
         <v>1.893</v>
       </c>
       <c r="E221" t="n">
-        <v>1.893</v>
+        <v>1.892</v>
       </c>
       <c r="F221" t="n">
-        <v>3233.8435</v>
+        <v>19614.7553</v>
       </c>
       <c r="G221" t="n">
-        <v>1.876083333333332</v>
+        <v>1.876266666666665</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8312,9 +8618,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8341,10 +8645,10 @@
         <v>1.893</v>
       </c>
       <c r="F222" t="n">
-        <v>4251.5906</v>
+        <v>3233.8435</v>
       </c>
       <c r="G222" t="n">
-        <v>1.876133333333332</v>
+        <v>1.876083333333332</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8353,9 +8657,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8370,22 +8672,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.892</v>
+        <v>1.893</v>
       </c>
       <c r="C223" t="n">
-        <v>1.892</v>
+        <v>1.893</v>
       </c>
       <c r="D223" t="n">
-        <v>1.892</v>
+        <v>1.893</v>
       </c>
       <c r="E223" t="n">
-        <v>1.892</v>
+        <v>1.893</v>
       </c>
       <c r="F223" t="n">
-        <v>1363.5901</v>
+        <v>4251.5906</v>
       </c>
       <c r="G223" t="n">
-        <v>1.876166666666665</v>
+        <v>1.876133333333332</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8394,9 +8696,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8411,22 +8711,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.891</v>
+        <v>1.892</v>
       </c>
       <c r="C224" t="n">
-        <v>1.868</v>
+        <v>1.892</v>
       </c>
       <c r="D224" t="n">
-        <v>1.891</v>
+        <v>1.892</v>
       </c>
       <c r="E224" t="n">
-        <v>1.868</v>
+        <v>1.892</v>
       </c>
       <c r="F224" t="n">
-        <v>2971643</v>
+        <v>1363.5901</v>
       </c>
       <c r="G224" t="n">
-        <v>1.876316666666665</v>
+        <v>1.876166666666665</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8435,9 +8735,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,10 +8762,10 @@
         <v>1.868</v>
       </c>
       <c r="F225" t="n">
-        <v>2968172</v>
+        <v>2971643</v>
       </c>
       <c r="G225" t="n">
-        <v>1.875949999999999</v>
+        <v>1.876316666666665</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8476,9 +8774,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8505,10 +8801,10 @@
         <v>1.868</v>
       </c>
       <c r="F226" t="n">
-        <v>1397128</v>
+        <v>2968172</v>
       </c>
       <c r="G226" t="n">
-        <v>1.875416666666665</v>
+        <v>1.875949999999999</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8517,9 +8813,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,19 +8831,19 @@
         <v>1.891</v>
       </c>
       <c r="C227" t="n">
-        <v>1.892</v>
+        <v>1.868</v>
       </c>
       <c r="D227" t="n">
-        <v>1.892</v>
+        <v>1.891</v>
       </c>
       <c r="E227" t="n">
         <v>1.868</v>
       </c>
       <c r="F227" t="n">
-        <v>2610309</v>
+        <v>1397128</v>
       </c>
       <c r="G227" t="n">
-        <v>1.875283333333332</v>
+        <v>1.875416666666665</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8558,9 +8852,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8575,7 +8867,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.868</v>
+        <v>1.891</v>
       </c>
       <c r="C228" t="n">
         <v>1.892</v>
@@ -8587,10 +8879,10 @@
         <v>1.868</v>
       </c>
       <c r="F228" t="n">
-        <v>3067714</v>
+        <v>2610309</v>
       </c>
       <c r="G228" t="n">
-        <v>1.875099999999998</v>
+        <v>1.875283333333332</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8599,9 +8891,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8616,22 +8906,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.871</v>
+        <v>1.868</v>
       </c>
       <c r="C229" t="n">
-        <v>1.871</v>
+        <v>1.892</v>
       </c>
       <c r="D229" t="n">
-        <v>1.891</v>
+        <v>1.892</v>
       </c>
       <c r="E229" t="n">
-        <v>1.871</v>
+        <v>1.868</v>
       </c>
       <c r="F229" t="n">
-        <v>2635681</v>
+        <v>3067714</v>
       </c>
       <c r="G229" t="n">
-        <v>1.874583333333331</v>
+        <v>1.875099999999998</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8640,9 +8930,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8657,7 +8945,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.891</v>
+        <v>1.871</v>
       </c>
       <c r="C230" t="n">
         <v>1.871</v>
@@ -8669,10 +8957,10 @@
         <v>1.871</v>
       </c>
       <c r="F230" t="n">
-        <v>2787489</v>
+        <v>2635681</v>
       </c>
       <c r="G230" t="n">
-        <v>1.874083333333331</v>
+        <v>1.874583333333331</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8681,9 +8969,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8701,7 +8987,7 @@
         <v>1.891</v>
       </c>
       <c r="C231" t="n">
-        <v>1.891</v>
+        <v>1.871</v>
       </c>
       <c r="D231" t="n">
         <v>1.891</v>
@@ -8710,10 +8996,10 @@
         <v>1.871</v>
       </c>
       <c r="F231" t="n">
-        <v>3226424</v>
+        <v>2787489</v>
       </c>
       <c r="G231" t="n">
-        <v>1.874399999999998</v>
+        <v>1.874083333333331</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8722,9 +9008,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8739,10 +9023,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.871</v>
+        <v>1.891</v>
       </c>
       <c r="C232" t="n">
-        <v>1.871</v>
+        <v>1.891</v>
       </c>
       <c r="D232" t="n">
         <v>1.891</v>
@@ -8751,7 +9035,7 @@
         <v>1.871</v>
       </c>
       <c r="F232" t="n">
-        <v>1206658</v>
+        <v>3226424</v>
       </c>
       <c r="G232" t="n">
         <v>1.874399999999998</v>
@@ -8763,9 +9047,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8780,22 +9062,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.89</v>
+        <v>1.871</v>
       </c>
       <c r="C233" t="n">
-        <v>1.89</v>
+        <v>1.871</v>
       </c>
       <c r="D233" t="n">
-        <v>1.89</v>
+        <v>1.891</v>
       </c>
       <c r="E233" t="n">
-        <v>1.89</v>
+        <v>1.871</v>
       </c>
       <c r="F233" t="n">
-        <v>265</v>
+        <v>1206658</v>
       </c>
       <c r="G233" t="n">
-        <v>1.874283333333331</v>
+        <v>1.874399999999998</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8804,9 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8821,22 +9101,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="C234" t="n">
-        <v>1.866</v>
+        <v>1.89</v>
       </c>
       <c r="D234" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="E234" t="n">
-        <v>1.866</v>
+        <v>1.89</v>
       </c>
       <c r="F234" t="n">
-        <v>2098745</v>
+        <v>265</v>
       </c>
       <c r="G234" t="n">
-        <v>1.873766666666665</v>
+        <v>1.874283333333331</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8845,9 +9125,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8862,22 +9140,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="C235" t="n">
-        <v>1.867</v>
+        <v>1.866</v>
       </c>
       <c r="D235" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="E235" t="n">
         <v>1.866</v>
       </c>
       <c r="F235" t="n">
-        <v>3624225</v>
+        <v>2098745</v>
       </c>
       <c r="G235" t="n">
-        <v>1.873233333333331</v>
+        <v>1.873766666666665</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8886,9 +9164,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8903,22 +9179,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.887</v>
+        <v>1.888</v>
       </c>
       <c r="C236" t="n">
-        <v>1.887</v>
+        <v>1.867</v>
       </c>
       <c r="D236" t="n">
-        <v>1.887</v>
+        <v>1.888</v>
       </c>
       <c r="E236" t="n">
-        <v>1.867</v>
+        <v>1.866</v>
       </c>
       <c r="F236" t="n">
-        <v>1027170.8979</v>
+        <v>3624225</v>
       </c>
       <c r="G236" t="n">
-        <v>1.873033333333331</v>
+        <v>1.873233333333331</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8927,9 +9203,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,19 +9221,19 @@
         <v>1.887</v>
       </c>
       <c r="C237" t="n">
-        <v>1.892</v>
+        <v>1.887</v>
       </c>
       <c r="D237" t="n">
-        <v>1.892</v>
+        <v>1.887</v>
       </c>
       <c r="E237" t="n">
         <v>1.867</v>
       </c>
       <c r="F237" t="n">
-        <v>1212907.676370402</v>
+        <v>1027170.8979</v>
       </c>
       <c r="G237" t="n">
-        <v>1.873366666666665</v>
+        <v>1.873033333333331</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8968,9 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8985,22 +9257,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.868</v>
+        <v>1.887</v>
       </c>
       <c r="C238" t="n">
-        <v>1.868</v>
+        <v>1.892</v>
       </c>
       <c r="D238" t="n">
-        <v>1.868</v>
+        <v>1.892</v>
       </c>
       <c r="E238" t="n">
-        <v>1.868</v>
+        <v>1.867</v>
       </c>
       <c r="F238" t="n">
-        <v>294.255</v>
+        <v>1212907.676370402</v>
       </c>
       <c r="G238" t="n">
-        <v>1.872883333333331</v>
+        <v>1.873366666666665</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9009,9 +9281,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9026,22 +9296,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.891</v>
+        <v>1.868</v>
       </c>
       <c r="C239" t="n">
-        <v>1.891</v>
+        <v>1.868</v>
       </c>
       <c r="D239" t="n">
-        <v>1.891</v>
+        <v>1.868</v>
       </c>
       <c r="E239" t="n">
-        <v>1.891</v>
+        <v>1.868</v>
       </c>
       <c r="F239" t="n">
-        <v>265</v>
+        <v>294.255</v>
       </c>
       <c r="G239" t="n">
-        <v>1.873399999999998</v>
+        <v>1.872883333333331</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9050,9 +9320,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,19 +9335,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.892</v>
+        <v>1.891</v>
       </c>
       <c r="C240" t="n">
-        <v>1.872</v>
+        <v>1.891</v>
       </c>
       <c r="D240" t="n">
-        <v>1.892</v>
+        <v>1.891</v>
       </c>
       <c r="E240" t="n">
-        <v>1.872</v>
+        <v>1.891</v>
       </c>
       <c r="F240" t="n">
-        <v>1458716</v>
+        <v>265</v>
       </c>
       <c r="G240" t="n">
         <v>1.873399999999998</v>
@@ -9091,9 +9359,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9111,7 +9377,7 @@
         <v>1.892</v>
       </c>
       <c r="C241" t="n">
-        <v>1.892</v>
+        <v>1.872</v>
       </c>
       <c r="D241" t="n">
         <v>1.892</v>
@@ -9120,10 +9386,10 @@
         <v>1.872</v>
       </c>
       <c r="F241" t="n">
-        <v>3129896</v>
+        <v>1458716</v>
       </c>
       <c r="G241" t="n">
-        <v>1.873749999999998</v>
+        <v>1.873399999999998</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9132,9 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9149,10 +9413,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.872</v>
+        <v>1.892</v>
       </c>
       <c r="C242" t="n">
-        <v>1.874</v>
+        <v>1.892</v>
       </c>
       <c r="D242" t="n">
         <v>1.892</v>
@@ -9161,10 +9425,10 @@
         <v>1.872</v>
       </c>
       <c r="F242" t="n">
-        <v>2545907</v>
+        <v>3129896</v>
       </c>
       <c r="G242" t="n">
-        <v>1.873983333333331</v>
+        <v>1.873749999999998</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9173,9 +9437,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,22 +9452,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.889</v>
+        <v>1.872</v>
       </c>
       <c r="C243" t="n">
-        <v>1.888</v>
+        <v>1.874</v>
       </c>
       <c r="D243" t="n">
-        <v>1.889</v>
+        <v>1.892</v>
       </c>
       <c r="E243" t="n">
-        <v>1.888</v>
+        <v>1.872</v>
       </c>
       <c r="F243" t="n">
-        <v>530</v>
+        <v>2545907</v>
       </c>
       <c r="G243" t="n">
-        <v>1.874516666666665</v>
+        <v>1.873983333333331</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9214,9 +9476,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9231,22 +9491,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="C244" t="n">
         <v>1.888</v>
       </c>
       <c r="D244" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="E244" t="n">
         <v>1.888</v>
       </c>
       <c r="F244" t="n">
-        <v>200000</v>
+        <v>530</v>
       </c>
       <c r="G244" t="n">
-        <v>1.874999999999998</v>
+        <v>1.874516666666665</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9255,9 +9515,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9272,22 +9530,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.89</v>
+        <v>1.888</v>
       </c>
       <c r="C245" t="n">
-        <v>1.89</v>
+        <v>1.888</v>
       </c>
       <c r="D245" t="n">
-        <v>1.89</v>
+        <v>1.888</v>
       </c>
       <c r="E245" t="n">
-        <v>1.89</v>
+        <v>1.888</v>
       </c>
       <c r="F245" t="n">
-        <v>265</v>
+        <v>200000</v>
       </c>
       <c r="G245" t="n">
-        <v>1.875516666666665</v>
+        <v>1.874999999999998</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9296,9 +9554,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9313,22 +9569,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="C246" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="D246" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="E246" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="F246" t="n">
         <v>265</v>
       </c>
       <c r="G246" t="n">
-        <v>1.875833333333331</v>
+        <v>1.875516666666665</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9337,9 +9593,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9366,7 +9620,7 @@
         <v>1.889</v>
       </c>
       <c r="F247" t="n">
-        <v>735</v>
+        <v>265</v>
       </c>
       <c r="G247" t="n">
         <v>1.875833333333331</v>
@@ -9378,9 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9395,22 +9647,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="C248" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="D248" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="E248" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="F248" t="n">
-        <v>62288.7648</v>
+        <v>735</v>
       </c>
       <c r="G248" t="n">
-        <v>1.876366666666665</v>
+        <v>1.875833333333331</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9419,9 +9671,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,22 +9686,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="C249" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="D249" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="E249" t="n">
-        <v>1.889</v>
+        <v>1.89</v>
       </c>
       <c r="F249" t="n">
-        <v>200000</v>
+        <v>62288.7648</v>
       </c>
       <c r="G249" t="n">
-        <v>1.876866666666665</v>
+        <v>1.876366666666665</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9460,9 +9710,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9480,19 +9728,19 @@
         <v>1.889</v>
       </c>
       <c r="C250" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="D250" t="n">
         <v>1.889</v>
       </c>
       <c r="E250" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="F250" t="n">
-        <v>506725.3572</v>
+        <v>200000</v>
       </c>
       <c r="G250" t="n">
-        <v>1.877033333333331</v>
+        <v>1.876866666666665</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9501,9 +9749,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9518,22 +9764,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="C251" t="n">
-        <v>1.887</v>
+        <v>1.888</v>
       </c>
       <c r="D251" t="n">
-        <v>1.887</v>
+        <v>1.889</v>
       </c>
       <c r="E251" t="n">
-        <v>1.887</v>
+        <v>1.888</v>
       </c>
       <c r="F251" t="n">
-        <v>267</v>
+        <v>506725.3572</v>
       </c>
       <c r="G251" t="n">
-        <v>1.877499999999998</v>
+        <v>1.877033333333331</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9542,9 +9788,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9559,22 +9803,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="C252" t="n">
-        <v>1.888</v>
+        <v>1.887</v>
       </c>
       <c r="D252" t="n">
-        <v>1.888</v>
+        <v>1.887</v>
       </c>
       <c r="E252" t="n">
-        <v>1.871</v>
+        <v>1.887</v>
       </c>
       <c r="F252" t="n">
-        <v>1406103.4744</v>
+        <v>267</v>
       </c>
       <c r="G252" t="n">
-        <v>1.877649999999998</v>
+        <v>1.877499999999998</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9583,9 +9827,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9600,7 +9842,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.872</v>
+        <v>1.886</v>
       </c>
       <c r="C253" t="n">
         <v>1.888</v>
@@ -9609,13 +9851,13 @@
         <v>1.888</v>
       </c>
       <c r="E253" t="n">
-        <v>1.872</v>
+        <v>1.871</v>
       </c>
       <c r="F253" t="n">
-        <v>2820350</v>
+        <v>1406103.4744</v>
       </c>
       <c r="G253" t="n">
-        <v>1.877783333333332</v>
+        <v>1.877649999999998</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9624,9 +9866,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9641,7 +9881,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.888</v>
+        <v>1.872</v>
       </c>
       <c r="C254" t="n">
         <v>1.888</v>
@@ -9653,10 +9893,10 @@
         <v>1.872</v>
       </c>
       <c r="F254" t="n">
-        <v>1728003</v>
+        <v>2820350</v>
       </c>
       <c r="G254" t="n">
-        <v>1.877999999999999</v>
+        <v>1.877783333333332</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9665,9 +9905,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9682,7 +9920,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.872</v>
+        <v>1.888</v>
       </c>
       <c r="C255" t="n">
         <v>1.888</v>
@@ -9694,10 +9932,10 @@
         <v>1.872</v>
       </c>
       <c r="F255" t="n">
-        <v>1207317</v>
+        <v>1728003</v>
       </c>
       <c r="G255" t="n">
-        <v>1.878249999999998</v>
+        <v>1.877999999999999</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9706,9 +9944,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,10 +9971,10 @@
         <v>1.872</v>
       </c>
       <c r="F256" t="n">
-        <v>307077.7648</v>
+        <v>1207317</v>
       </c>
       <c r="G256" t="n">
-        <v>1.878549999999998</v>
+        <v>1.878249999999998</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9747,9 +9983,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9767,19 +10001,19 @@
         <v>1.872</v>
       </c>
       <c r="C257" t="n">
-        <v>1.872</v>
+        <v>1.888</v>
       </c>
       <c r="D257" t="n">
-        <v>1.872</v>
+        <v>1.888</v>
       </c>
       <c r="E257" t="n">
         <v>1.872</v>
       </c>
       <c r="F257" t="n">
-        <v>495010</v>
+        <v>307077.7648</v>
       </c>
       <c r="G257" t="n">
-        <v>1.878733333333332</v>
+        <v>1.878549999999998</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9788,9 +10022,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9805,22 +10037,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1.888</v>
+        <v>1.872</v>
       </c>
       <c r="C258" t="n">
-        <v>1.888</v>
+        <v>1.872</v>
       </c>
       <c r="D258" t="n">
-        <v>1.888</v>
+        <v>1.872</v>
       </c>
       <c r="E258" t="n">
-        <v>1.888</v>
+        <v>1.872</v>
       </c>
       <c r="F258" t="n">
-        <v>265</v>
+        <v>495010</v>
       </c>
       <c r="G258" t="n">
-        <v>1.879133333333332</v>
+        <v>1.878733333333332</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9829,9 +10061,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9861,7 +10091,7 @@
         <v>265</v>
       </c>
       <c r="G259" t="n">
-        <v>1.879366666666665</v>
+        <v>1.879133333333332</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9870,9 +10100,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9902,7 +10130,7 @@
         <v>265</v>
       </c>
       <c r="G260" t="n">
-        <v>1.879849999999999</v>
+        <v>1.879366666666665</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9911,9 +10139,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9940,10 +10166,10 @@
         <v>1.888</v>
       </c>
       <c r="F261" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G261" t="n">
-        <v>1.880333333333332</v>
+        <v>1.879849999999999</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9952,9 +10178,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9969,22 +10193,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="C262" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="D262" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="E262" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="F262" t="n">
-        <v>139917.5301</v>
+        <v>267</v>
       </c>
       <c r="G262" t="n">
-        <v>1.880833333333332</v>
+        <v>1.880333333333332</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9993,9 +10217,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10010,22 +10232,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.88</v>
+        <v>1.889</v>
       </c>
       <c r="C263" t="n">
-        <v>1.867</v>
+        <v>1.889</v>
       </c>
       <c r="D263" t="n">
-        <v>1.88</v>
+        <v>1.889</v>
       </c>
       <c r="E263" t="n">
-        <v>1.867</v>
+        <v>1.889</v>
       </c>
       <c r="F263" t="n">
-        <v>610163.8768</v>
+        <v>139917.5301</v>
       </c>
       <c r="G263" t="n">
-        <v>1.880966666666666</v>
+        <v>1.880833333333332</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10034,9 +10256,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10051,22 +10271,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="C264" t="n">
         <v>1.867</v>
       </c>
       <c r="D264" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="E264" t="n">
         <v>1.867</v>
       </c>
       <c r="F264" t="n">
-        <v>49892.8736</v>
+        <v>610163.8768</v>
       </c>
       <c r="G264" t="n">
-        <v>1.881099999999999</v>
+        <v>1.880966666666666</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10075,9 +10295,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10095,19 +10313,19 @@
         <v>1.867</v>
       </c>
       <c r="C265" t="n">
-        <v>1.871</v>
+        <v>1.867</v>
       </c>
       <c r="D265" t="n">
-        <v>1.888</v>
+        <v>1.867</v>
       </c>
       <c r="E265" t="n">
         <v>1.867</v>
       </c>
       <c r="F265" t="n">
-        <v>2181136.2496</v>
+        <v>49892.8736</v>
       </c>
       <c r="G265" t="n">
-        <v>1.881033333333332</v>
+        <v>1.881099999999999</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10116,9 +10334,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10133,33 +10349,33 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1.888</v>
+        <v>1.867</v>
       </c>
       <c r="C266" t="n">
-        <v>1.887</v>
+        <v>1.871</v>
       </c>
       <c r="D266" t="n">
         <v>1.888</v>
       </c>
       <c r="E266" t="n">
-        <v>1.871</v>
+        <v>1.867</v>
       </c>
       <c r="F266" t="n">
-        <v>3467961</v>
+        <v>2181136.2496</v>
       </c>
       <c r="G266" t="n">
-        <v>1.881499999999999</v>
+        <v>1.881033333333332</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="J266" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10174,33 +10390,33 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.871</v>
+        <v>1.888</v>
       </c>
       <c r="C267" t="n">
-        <v>1.871</v>
+        <v>1.887</v>
       </c>
       <c r="D267" t="n">
-        <v>1.887</v>
+        <v>1.888</v>
       </c>
       <c r="E267" t="n">
         <v>1.871</v>
       </c>
       <c r="F267" t="n">
-        <v>2927860</v>
+        <v>3467961</v>
       </c>
       <c r="G267" t="n">
-        <v>1.881699999999999</v>
+        <v>1.881499999999999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="J267" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10215,22 +10431,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.87</v>
+        <v>1.871</v>
       </c>
       <c r="C268" t="n">
-        <v>1.887</v>
+        <v>1.871</v>
       </c>
       <c r="D268" t="n">
         <v>1.887</v>
       </c>
       <c r="E268" t="n">
-        <v>1.867</v>
+        <v>1.871</v>
       </c>
       <c r="F268" t="n">
-        <v>1526738</v>
+        <v>2927860</v>
       </c>
       <c r="G268" t="n">
-        <v>1.882166666666666</v>
+        <v>1.881699999999999</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10239,9 +10455,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,22 +10470,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C269" t="n">
         <v>1.887</v>
       </c>
-      <c r="C269" t="n">
-        <v>1.888</v>
-      </c>
       <c r="D269" t="n">
-        <v>1.888</v>
+        <v>1.887</v>
       </c>
       <c r="E269" t="n">
-        <v>1.871</v>
+        <v>1.867</v>
       </c>
       <c r="F269" t="n">
-        <v>2819383.6989</v>
+        <v>1526738</v>
       </c>
       <c r="G269" t="n">
-        <v>1.8824</v>
+        <v>1.882166666666666</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10280,9 +10494,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10297,10 +10509,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C270" t="n">
         <v>1.888</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1.871</v>
       </c>
       <c r="D270" t="n">
         <v>1.888</v>
@@ -10309,10 +10521,10 @@
         <v>1.871</v>
       </c>
       <c r="F270" t="n">
-        <v>2900871</v>
+        <v>2819383.6989</v>
       </c>
       <c r="G270" t="n">
-        <v>1.88235</v>
+        <v>1.8824</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10321,9 +10533,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10350,10 +10560,10 @@
         <v>1.871</v>
       </c>
       <c r="F271" t="n">
-        <v>2144914</v>
+        <v>2900871</v>
       </c>
       <c r="G271" t="n">
-        <v>1.88255</v>
+        <v>1.88235</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10362,9 +10572,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10382,7 +10590,7 @@
         <v>1.888</v>
       </c>
       <c r="C272" t="n">
-        <v>1.888</v>
+        <v>1.871</v>
       </c>
       <c r="D272" t="n">
         <v>1.888</v>
@@ -10391,10 +10599,10 @@
         <v>1.871</v>
       </c>
       <c r="F272" t="n">
-        <v>3002840</v>
+        <v>2144914</v>
       </c>
       <c r="G272" t="n">
-        <v>1.882766666666666</v>
+        <v>1.88255</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10403,9 +10611,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10420,10 +10626,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1.871</v>
+        <v>1.888</v>
       </c>
       <c r="C273" t="n">
-        <v>1.871</v>
+        <v>1.888</v>
       </c>
       <c r="D273" t="n">
         <v>1.888</v>
@@ -10432,10 +10638,10 @@
         <v>1.871</v>
       </c>
       <c r="F273" t="n">
-        <v>1979595</v>
+        <v>3002840</v>
       </c>
       <c r="G273" t="n">
-        <v>1.8827</v>
+        <v>1.882766666666666</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10444,9 +10650,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10461,22 +10665,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1.888</v>
+        <v>1.871</v>
       </c>
       <c r="C274" t="n">
-        <v>1.888</v>
+        <v>1.871</v>
       </c>
       <c r="D274" t="n">
         <v>1.888</v>
       </c>
       <c r="E274" t="n">
-        <v>1.888</v>
+        <v>1.871</v>
       </c>
       <c r="F274" t="n">
-        <v>265</v>
+        <v>1979595</v>
       </c>
       <c r="G274" t="n">
-        <v>1.882633333333333</v>
+        <v>1.8827</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10485,9 +10689,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10502,22 +10704,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1.886</v>
+        <v>1.888</v>
       </c>
       <c r="C275" t="n">
-        <v>1.886</v>
+        <v>1.888</v>
       </c>
       <c r="D275" t="n">
-        <v>1.886</v>
+        <v>1.888</v>
       </c>
       <c r="E275" t="n">
-        <v>1.886</v>
+        <v>1.888</v>
       </c>
       <c r="F275" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G275" t="n">
-        <v>1.88285</v>
+        <v>1.882633333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10526,9 +10728,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10543,22 +10743,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1.888</v>
+        <v>1.886</v>
       </c>
       <c r="C276" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="D276" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="E276" t="n">
-        <v>1.871</v>
+        <v>1.886</v>
       </c>
       <c r="F276" t="n">
-        <v>2458268.1565</v>
+        <v>266</v>
       </c>
       <c r="G276" t="n">
-        <v>1.882816666666666</v>
+        <v>1.88285</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10567,9 +10767,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10584,22 +10782,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C277" t="n">
         <v>1.889</v>
-      </c>
-      <c r="C277" t="n">
-        <v>1.871</v>
       </c>
       <c r="D277" t="n">
         <v>1.889</v>
       </c>
       <c r="E277" t="n">
-        <v>1.868</v>
+        <v>1.871</v>
       </c>
       <c r="F277" t="n">
-        <v>2833140.3404</v>
+        <v>2458268.1565</v>
       </c>
       <c r="G277" t="n">
-        <v>1.882483333333333</v>
+        <v>1.882816666666666</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10608,9 +10806,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10628,19 +10824,19 @@
         <v>1.889</v>
       </c>
       <c r="C278" t="n">
-        <v>1.888</v>
+        <v>1.871</v>
       </c>
       <c r="D278" t="n">
         <v>1.889</v>
       </c>
       <c r="E278" t="n">
-        <v>1.871</v>
+        <v>1.868</v>
       </c>
       <c r="F278" t="n">
-        <v>2885435</v>
+        <v>2833140.3404</v>
       </c>
       <c r="G278" t="n">
-        <v>1.882766666666666</v>
+        <v>1.882483333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10649,9 +10845,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10666,22 +10860,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C279" t="n">
         <v>1.888</v>
       </c>
-      <c r="C279" t="n">
-        <v>1.868</v>
-      </c>
       <c r="D279" t="n">
-        <v>1.888</v>
+        <v>1.889</v>
       </c>
       <c r="E279" t="n">
-        <v>1.868</v>
+        <v>1.871</v>
       </c>
       <c r="F279" t="n">
-        <v>769250</v>
+        <v>2885435</v>
       </c>
       <c r="G279" t="n">
-        <v>1.882366666666666</v>
+        <v>1.882766666666666</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10690,9 +10884,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10707,22 +10899,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1.87</v>
+        <v>1.888</v>
       </c>
       <c r="C280" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="D280" t="n">
-        <v>1.87</v>
+        <v>1.888</v>
       </c>
       <c r="E280" t="n">
-        <v>1.87</v>
+        <v>1.868</v>
       </c>
       <c r="F280" t="n">
-        <v>32977.9923</v>
+        <v>769250</v>
       </c>
       <c r="G280" t="n">
-        <v>1.881983333333333</v>
+        <v>1.882366666666666</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10731,9 +10923,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10760,10 +10950,10 @@
         <v>1.87</v>
       </c>
       <c r="F281" t="n">
-        <v>350548.7626</v>
+        <v>32977.9923</v>
       </c>
       <c r="G281" t="n">
-        <v>1.881599999999999</v>
+        <v>1.881983333333333</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10772,9 +10962,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>1.879</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10789,41 +10977,78 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F282" t="n">
+        <v>350548.7626</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1.881599999999999</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
         <v>1.88</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C283" t="n">
         <v>1.88</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D283" t="n">
         <v>1.88</v>
       </c>
-      <c r="E282" t="n">
+      <c r="E283" t="n">
         <v>1.88</v>
       </c>
-      <c r="F282" t="n">
+      <c r="F283" t="n">
         <v>37977.9923</v>
       </c>
-      <c r="G282" t="n">
+      <c r="G283" t="n">
         <v>1.881383333333333</v>
       </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="n">
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
         <v>1.87</v>
       </c>
-      <c r="K282" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M283" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest AOA.xlsx
+++ b/BackTest/2020-01-19 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N351"/>
+  <dimension ref="A1:M351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,21 @@
         <v>-19393246.00048212</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1.838</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3031,21 @@
         <v>-16295233.00048212</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1.851</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3070,21 @@
         <v>-12916163.68128212</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1.868</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3111,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3148,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3185,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3220,21 @@
         <v>-16886152.68128212</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1.868</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3261,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3296,21 @@
         <v>-16826152.68128212</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3337,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3374,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3411,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3448,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3485,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3522,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3559,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3596,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3633,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3670,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3707,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3744,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3781,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3818,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3855,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3892,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3929,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3966,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4003,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4040,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4077,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4114,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4151,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4188,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4225,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4262,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4299,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4336,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4373,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4410,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4447,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4484,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4521,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4558,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4595,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4632,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4669,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,22 +4704,19 @@
         <v>-18677614.1017097</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="K125" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4926,22 +4743,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4966,26 +4778,21 @@
         <v>-19056685.0748097</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
         <v>1.87</v>
       </c>
-      <c r="K127" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5010,26 +4817,21 @@
         <v>-19511420.7094097</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
         <v>1.862</v>
       </c>
-      <c r="K128" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5054,26 +4856,19 @@
         <v>-19511420.7094097</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5098,26 +4893,21 @@
         <v>-19506337.1187097</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
         <v>1.86</v>
       </c>
-      <c r="K130" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5142,26 +4932,19 @@
         <v>-19516153.9451097</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L131" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5186,26 +4969,21 @@
         <v>-19679715.9005097</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
         <v>1.86</v>
       </c>
-      <c r="K132" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5230,26 +5008,21 @@
         <v>-19679715.9005097</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
         <v>1.85</v>
       </c>
-      <c r="K133" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5274,26 +5047,21 @@
         <v>-19644498.5505097</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
         <v>1.85</v>
       </c>
-      <c r="K134" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5318,26 +5086,21 @@
         <v>-20175640.8535097</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
         <v>1.865</v>
       </c>
-      <c r="K135" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5362,24 +5125,21 @@
         <v>-16925848.7638097</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1.852</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5404,26 +5164,21 @@
         <v>-13840240.4193097</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
         <v>1.853</v>
       </c>
-      <c r="K137" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5450,22 +5205,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5490,26 +5240,21 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
         <v>1.853</v>
       </c>
-      <c r="K139" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5534,24 +5279,21 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1.868</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5576,24 +5318,21 @@
         <v>-14243634.2580097</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1.868</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5618,26 +5357,21 @@
         <v>-14243634.2580097</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
         <v>1.855</v>
       </c>
-      <c r="K142" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5662,26 +5396,21 @@
         <v>-14430057.8874097</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
         <v>1.855</v>
       </c>
-      <c r="K143" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5706,26 +5435,21 @@
         <v>-14430057.8874097</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
         <v>1.854</v>
       </c>
-      <c r="K144" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5750,26 +5474,21 @@
         <v>-11299507.8874097</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
         <v>1.854</v>
       </c>
-      <c r="K145" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5794,26 +5513,21 @@
         <v>-11299507.8874097</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
         <v>1.869</v>
       </c>
-      <c r="K146" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5840,22 +5554,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5880,26 +5589,19 @@
         <v>-11759852.1302097</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="K148" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5926,22 +5628,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5968,22 +5665,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6010,22 +5702,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6050,24 +5737,21 @@
         <v>-11785420.0169097</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1.868</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6092,26 +5776,19 @@
         <v>-11777469.8936097</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K153" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L153" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6136,26 +5813,21 @@
         <v>-11776009.4058097</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
         <v>1.868</v>
       </c>
-      <c r="K154" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6180,26 +5852,21 @@
         <v>-11490302.17848441</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
         <v>1.87</v>
       </c>
-      <c r="K155" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6224,26 +5891,19 @@
         <v>-11198158.93218441</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="K156" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6270,22 +5930,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6312,22 +5967,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6352,24 +6002,17 @@
         <v>-9873758.505684406</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6394,24 +6037,15 @@
         <v>-9739985.239284405</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6436,24 +6070,15 @@
         <v>-9739985.239284405</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6478,24 +6103,15 @@
         <v>-9739985.239284405</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6520,24 +6136,15 @@
         <v>-10658157.40138441</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6562,24 +6169,15 @@
         <v>-10658157.40138441</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6606,22 +6204,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6646,24 +6235,15 @@
         <v>-14175025.96458441</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6688,24 +6268,15 @@
         <v>-13896525.89958441</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6730,24 +6301,15 @@
         <v>-14085508.72628441</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6774,22 +6336,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6814,24 +6367,15 @@
         <v>-13913617.16948441</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6856,24 +6400,15 @@
         <v>-13624429.18288441</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6900,22 +6435,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6940,24 +6466,15 @@
         <v>-15064289.18148441</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6982,24 +6499,15 @@
         <v>-15064289.18148441</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7024,24 +6532,15 @@
         <v>-15064289.18148441</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7066,24 +6565,15 @@
         <v>-15064289.18148441</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7108,24 +6598,15 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7150,24 +6631,15 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1.009392324093817</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7192,18 +6664,15 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7228,18 +6697,15 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7264,18 +6730,15 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7300,18 +6763,15 @@
         <v>-15253289.18148441</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7338,16 +6798,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7374,16 +6831,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7410,16 +6864,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7446,16 +6897,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7482,16 +6930,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7516,18 +6961,15 @@
         <v>-16721912.66568441</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7552,18 +6994,15 @@
         <v>-16873355.41578441</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7590,16 +7029,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7624,18 +7060,15 @@
         <v>-16873367.66338441</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7662,16 +7095,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7698,16 +7128,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7734,16 +7161,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7770,16 +7194,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7806,16 +7227,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7842,16 +7260,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7878,16 +7293,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7914,16 +7326,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7950,16 +7359,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7986,16 +7392,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8022,16 +7425,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8058,16 +7458,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8094,16 +7491,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8130,16 +7524,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8166,16 +7557,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8202,16 +7590,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8238,16 +7623,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8274,16 +7656,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8310,16 +7689,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8346,16 +7722,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8382,16 +7755,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8418,16 +7788,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8454,16 +7821,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8490,16 +7854,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8526,16 +7887,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8562,16 +7920,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8598,16 +7953,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8634,16 +7986,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8670,16 +8019,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8706,16 +8052,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8742,16 +8085,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8778,16 +8118,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8814,16 +8151,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8850,16 +8184,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8884,18 +8215,15 @@
         <v>-18939847.60272707</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8922,16 +8250,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8958,16 +8283,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8994,16 +8316,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9030,16 +8349,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9066,16 +8382,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9102,16 +8415,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9138,16 +8448,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9174,16 +8481,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9210,16 +8514,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9246,16 +8547,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9282,16 +8580,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9318,16 +8613,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9354,16 +8646,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9390,16 +8679,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9426,16 +8712,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9462,16 +8745,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9498,16 +8778,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9534,16 +8811,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9570,16 +8844,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9606,16 +8877,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9642,16 +8910,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9678,16 +8943,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9714,16 +8976,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9750,16 +9009,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9786,16 +9042,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9822,16 +9075,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9858,16 +9108,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9894,16 +9141,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9930,16 +9174,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9966,16 +9207,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10002,16 +9240,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10038,16 +9273,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10074,16 +9306,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10110,16 +9339,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10146,16 +9372,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10182,16 +9405,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10218,16 +9438,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10254,16 +9471,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10290,16 +9504,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10326,16 +9537,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10362,16 +9570,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10398,16 +9603,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10434,16 +9636,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10470,16 +9669,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10506,16 +9702,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10542,16 +9735,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10578,16 +9768,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10614,16 +9801,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10650,16 +9834,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10686,16 +9867,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10722,16 +9900,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10758,16 +9933,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10794,16 +9966,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10830,16 +9999,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10866,16 +10032,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10902,16 +10065,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10938,16 +10098,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10974,16 +10131,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11010,16 +10164,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11046,16 +10197,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11082,16 +10230,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11118,16 +10263,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11154,16 +10296,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11190,16 +10329,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11226,16 +10362,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11262,16 +10395,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11298,16 +10428,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11334,16 +10461,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11370,16 +10494,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11406,16 +10527,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11442,16 +10560,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11478,16 +10593,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11514,16 +10626,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11550,16 +10659,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11586,16 +10692,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11622,16 +10725,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11658,16 +10758,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11694,16 +10791,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11730,16 +10824,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11766,16 +10857,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11802,16 +10890,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11838,16 +10923,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11874,16 +10956,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11910,16 +10989,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11946,16 +11022,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11982,16 +11055,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12018,16 +11088,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12054,16 +11121,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12090,16 +11154,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12126,16 +11187,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12162,16 +11220,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12198,16 +11253,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12234,16 +11286,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12270,16 +11319,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12306,16 +11352,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12342,16 +11385,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12378,16 +11418,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12414,16 +11451,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12450,16 +11484,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12486,16 +11517,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12522,16 +11550,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12558,16 +11583,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12594,16 +11616,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12630,16 +11649,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12666,16 +11682,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12702,16 +11715,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12738,16 +11748,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12774,16 +11781,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12810,16 +11814,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12846,16 +11847,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12882,16 +11880,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12918,16 +11913,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12954,16 +11946,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12990,16 +11979,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13026,16 +12012,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13062,16 +12045,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13098,16 +12078,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13134,16 +12111,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13170,16 +12144,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13206,16 +12177,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13242,16 +12210,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13278,16 +12243,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13314,16 +12276,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13350,16 +12309,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13386,18 +12342,15 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest AOA.xlsx
+++ b/BackTest/2020-01-19 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2992,1994 +2992,1786 @@
         <v>-19393246.00048212</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.838</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3098013</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-16295233.00048212</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3379069.3192</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-12916163.68128212</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F82" t="n">
+        <v>666479</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-13582642.68128212</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F83" t="n">
+        <v>536</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-13582106.68128212</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F84" t="n">
+        <v>252583</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-13329523.68128212</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3556629</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-16886152.68128212</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3754583</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-16886152.68128212</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F87" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-16826152.68128212</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2026936</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-18853088.68128212</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2853744</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-15999344.68128212</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1731926.7104</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-17731271.39168212</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F91" t="n">
+        <v>189781.9899</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-17541489.40178212</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F92" t="n">
+        <v>48305.5864</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-17541489.40178212</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F93" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-17841489.40178212</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F94" t="n">
+        <v>386110.4781</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-17841489.40178212</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F95" t="n">
+        <v>26557.6686</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-17841489.40178212</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2736.2637</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-17841489.40178212</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-17851489.40178212</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F98" t="n">
+        <v>267</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-17851222.40178212</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F99" t="n">
+        <v>547</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-17851769.40178212</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F100" t="n">
+        <v>561501.2886</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-17851769.40178212</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F101" t="n">
+        <v>352514.9088</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-18204284.31058212</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F102" t="n">
+        <v>598900.6002</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-18204284.31058212</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1035264</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-18204284.31058212</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F104" t="n">
+        <v>29237.0057</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-18175047.30488212</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F105" t="n">
+        <v>270</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-18174777.30488212</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F106" t="n">
+        <v>176463.8138</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-18351241.11868212</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F107" t="n">
+        <v>168340.7880724175</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-18182900.3306097</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F108" t="n">
+        <v>90811.5211</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-18273711.8517097</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F109" t="n">
+        <v>267</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-18273444.8517097</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F110" t="n">
+        <v>267</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-18273711.8517097</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F111" t="n">
+        <v>11281.8883</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-18284993.7400097</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F112" t="n">
+        <v>159515.5501</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-18125478.1899097</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F113" t="n">
+        <v>330056.0804</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-18125478.1899097</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10462.2718</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-18125478.1899097</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F115" t="n">
+        <v>330153.0804</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-18455631.2703097</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F116" t="n">
+        <v>267</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-18455364.2703097</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="F117" t="n">
+        <v>267</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-18455631.2703097</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F118" t="n">
+        <v>374465.4744</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-18830096.7447097</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F119" t="n">
+        <v>113089.9974</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-18943186.7421097</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F120" t="n">
+        <v>16915.9747</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-18943186.7421097</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F121" t="n">
+        <v>174601.2126</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-18768585.5295097</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F122" t="n">
+        <v>90971.4278</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-18677614.1017097</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F123" t="n">
+        <v>105014.9094</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-18677614.1017097</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F124" t="n">
+        <v>105015.4411</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-18677614.1017097</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="F125" t="n">
+        <v>193125.4114</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-18677614.1017097</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F126" t="n">
+        <v>35719.9793</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-18713334.0810097</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F127" t="n">
+        <v>343350.9938</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-19056685.0748097</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F128" t="n">
+        <v>454735.6346</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-19511420.7094097</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F129" t="n">
+        <v>102097.8164</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-19511420.7094097</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5083.5907</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-19506337.1187097</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9816.8264</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-19516153.9451097</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F132" t="n">
+        <v>163561.9554</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-19679715.9005097</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3098013</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-16295233.00048212</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3379069.3192</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-12916163.68128212</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F82" t="n">
-        <v>666479</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-13582642.68128212</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="F83" t="n">
-        <v>536</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-13582106.68128212</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F84" t="n">
-        <v>252583</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-13329523.68128212</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F85" t="n">
-        <v>3556629</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-16886152.68128212</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3754583</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-16886152.68128212</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F87" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-16826152.68128212</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F88" t="n">
-        <v>2026936</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-18853088.68128212</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2853744</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-15999344.68128212</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1731926.7104</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-17731271.39168212</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F91" t="n">
-        <v>189781.9899</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-17541489.40178212</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F92" t="n">
-        <v>48305.5864</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-17541489.40178212</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F93" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-17841489.40178212</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F94" t="n">
-        <v>386110.4781</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-17841489.40178212</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F95" t="n">
-        <v>26557.6686</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-17841489.40178212</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2736.2637</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-17841489.40178212</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F97" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-17851489.40178212</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F98" t="n">
-        <v>267</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-17851222.40178212</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F99" t="n">
-        <v>547</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-17851769.40178212</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F100" t="n">
-        <v>561501.2886</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-17851769.40178212</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F101" t="n">
-        <v>352514.9088</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-18204284.31058212</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F102" t="n">
-        <v>598900.6002</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-18204284.31058212</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1035264</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-18204284.31058212</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F104" t="n">
-        <v>29237.0057</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-18175047.30488212</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F105" t="n">
-        <v>270</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-18174777.30488212</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F106" t="n">
-        <v>176463.8138</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-18351241.11868212</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F107" t="n">
-        <v>168340.7880724175</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-18182900.3306097</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F108" t="n">
-        <v>90811.5211</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-18273711.8517097</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F109" t="n">
-        <v>267</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-18273444.8517097</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F110" t="n">
-        <v>267</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-18273711.8517097</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F111" t="n">
-        <v>11281.8883</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-18284993.7400097</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F112" t="n">
-        <v>159515.5501</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-18125478.1899097</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F113" t="n">
-        <v>330056.0804</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-18125478.1899097</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F114" t="n">
-        <v>10462.2718</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-18125478.1899097</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F115" t="n">
-        <v>330153.0804</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-18455631.2703097</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="F116" t="n">
-        <v>267</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-18455364.2703097</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="F117" t="n">
-        <v>267</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-18455631.2703097</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F118" t="n">
-        <v>374465.4744</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-18830096.7447097</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F119" t="n">
-        <v>113089.9974</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-18943186.7421097</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F120" t="n">
-        <v>16915.9747</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-18943186.7421097</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="F121" t="n">
-        <v>174601.2126</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-18768585.5295097</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="F122" t="n">
-        <v>90971.4278</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-18677614.1017097</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F123" t="n">
-        <v>105014.9094</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-18677614.1017097</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F124" t="n">
-        <v>105015.4411</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-18677614.1017097</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="F125" t="n">
-        <v>193125.4114</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-18677614.1017097</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F126" t="n">
-        <v>35719.9793</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-18713334.0810097</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F127" t="n">
-        <v>343350.9938</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-19056685.0748097</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F128" t="n">
-        <v>454735.6346</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-19511420.7094097</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F129" t="n">
-        <v>102097.8164</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-19511420.7094097</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F130" t="n">
-        <v>5083.5907</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-19506337.1187097</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F131" t="n">
-        <v>9816.8264</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-19516153.9451097</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F132" t="n">
-        <v>163561.9554</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-19679715.9005097</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5008,12 +4800,12 @@
         <v>-19679715.9005097</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,12 +4839,12 @@
         <v>-19644498.5505097</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,12 +4878,12 @@
         <v>-20175640.8535097</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,12 +4917,12 @@
         <v>-16925848.7638097</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,12 +4956,12 @@
         <v>-13840240.4193097</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,7 +4998,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5240,12 +5034,12 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5279,12 +5073,12 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,12 +5112,12 @@
         <v>-14243634.2580097</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,12 +5151,12 @@
         <v>-14243634.2580097</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5396,12 +5190,14 @@
         <v>-14430057.8874097</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>1.855</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5435,12 +5231,14 @@
         <v>-14430057.8874097</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>1.854</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,12 +5272,14 @@
         <v>-11299507.8874097</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>1.854</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5513,12 +5313,12 @@
         <v>-11299507.8874097</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5555,7 +5355,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5592,7 +5394,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,7 +5433,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5666,7 +5472,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5703,7 +5511,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,12 +5547,12 @@
         <v>-11785420.0169097</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5779,7 +5589,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,12 +5625,12 @@
         <v>-11776009.4058097</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5852,12 +5664,12 @@
         <v>-11490302.17848441</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,7 +5706,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,7 +5745,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,7 +5784,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6002,741 +5820,877 @@
         <v>-9873758.505684406</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.86</v>
+      </c>
       <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F160" t="n">
+        <v>133773.2664</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-9739985.239284405</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F161" t="n">
+        <v>70117.34149999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-9739985.239284405</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F162" t="n">
+        <v>24513.4359</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-9739985.239284405</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F163" t="n">
+        <v>918172.1621</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-10658157.40138441</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2730300</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-10658157.40138441</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3525816</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-14183973.40138441</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8947.436799999999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-14175025.96458441</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F167" t="n">
+        <v>278500.065</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-13896525.89958441</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F168" t="n">
+        <v>188982.8267</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-14085508.72628441</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F169" t="n">
+        <v>171891.5568</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-13913617.16948441</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F170" t="n">
+        <v>109510.1095</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-13913617.16948441</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F171" t="n">
+        <v>289187.9866</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-13624429.18288441</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>271843.4072</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-13352585.77568441</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1711703.4058</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-15064289.18148441</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1388192</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-15064289.18148441</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2069525</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-15064289.18148441</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F176" t="n">
+        <v>721627.0845999999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-15064289.18148441</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-15063289.18148441</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-15063289.18148441</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F179" t="n">
+        <v>128060.4185</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-15063289.18148441</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F180" t="n">
+        <v>558203.2968</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-15063289.18148441</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F181" t="n">
+        <v>112019.4429847609</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-15063289.18148441</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F160" t="n">
-        <v>133773.2664</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-9739985.239284405</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F161" t="n">
-        <v>70117.34149999999</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-9739985.239284405</v>
-      </c>
-      <c r="H161" t="n">
-        <v>3</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F162" t="n">
-        <v>24513.4359</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-9739985.239284405</v>
-      </c>
-      <c r="H162" t="n">
-        <v>3</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F163" t="n">
-        <v>918172.1621</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-10658157.40138441</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2730300</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-10658157.40138441</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F165" t="n">
-        <v>3525816</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-14183973.40138441</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F166" t="n">
-        <v>8947.436799999999</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-14175025.96458441</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F167" t="n">
-        <v>278500.065</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-13896525.89958441</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="F168" t="n">
-        <v>188982.8267</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-14085508.72628441</v>
-      </c>
-      <c r="H168" t="n">
-        <v>3</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F169" t="n">
-        <v>171891.5568</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-13913617.16948441</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F170" t="n">
-        <v>109510.1095</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-13913617.16948441</v>
-      </c>
-      <c r="H170" t="n">
-        <v>3</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F171" t="n">
-        <v>289187.9866</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-13624429.18288441</v>
-      </c>
-      <c r="H171" t="n">
-        <v>3</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F172" t="n">
-        <v>271843.4072</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-13352585.77568441</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1711703.4058</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-15064289.18148441</v>
-      </c>
-      <c r="H173" t="n">
-        <v>3</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1388192</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-15064289.18148441</v>
-      </c>
-      <c r="H174" t="n">
-        <v>3</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2069525</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-15064289.18148441</v>
-      </c>
-      <c r="H175" t="n">
-        <v>3</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="F176" t="n">
-        <v>721627.0845999999</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-15064289.18148441</v>
-      </c>
-      <c r="H176" t="n">
-        <v>3</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-15063289.18148441</v>
-      </c>
-      <c r="H177" t="n">
-        <v>3</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F178" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-15063289.18148441</v>
-      </c>
-      <c r="H178" t="n">
-        <v>3</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F179" t="n">
-        <v>128060.4185</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-15063289.18148441</v>
-      </c>
-      <c r="H179" t="n">
-        <v>3</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F180" t="n">
-        <v>558203.2968</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-15063289.18148441</v>
-      </c>
-      <c r="H180" t="n">
-        <v>3</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F181" t="n">
-        <v>112019.4429847609</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-15063289.18148441</v>
-      </c>
-      <c r="H181" t="n">
-        <v>3</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>1.018118279569893</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
@@ -6763,7 +6717,7 @@
         <v>-15253289.18148441</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6796,7 +6750,7 @@
         <v>-15253289.18148441</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6829,7 +6783,7 @@
         <v>-15253289.18148441</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6862,7 +6816,7 @@
         <v>-15253289.18148441</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6895,7 +6849,7 @@
         <v>-15325099.66568441</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6928,7 +6882,7 @@
         <v>-16721912.66568441</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6961,7 +6915,7 @@
         <v>-16721912.66568441</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6994,7 +6948,7 @@
         <v>-16873355.41578441</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7027,7 +6981,7 @@
         <v>-16872828.41578441</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7060,7 +7014,7 @@
         <v>-16873367.66338441</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7093,7 +7047,7 @@
         <v>-15987665.17338441</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7126,7 +7080,7 @@
         <v>-18860755.15601403</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7159,7 +7113,7 @@
         <v>-15935151.34061403</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7192,7 +7146,7 @@
         <v>-16644725.34061403</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7225,7 +7179,7 @@
         <v>-16644462.34061403</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7258,7 +7212,7 @@
         <v>-17754591.17901403</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7291,7 +7245,7 @@
         <v>-17580005.78341403</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7324,7 +7278,7 @@
         <v>-18416116.21251403</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7357,7 +7311,7 @@
         <v>-18495744.84941403</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7390,7 +7344,7 @@
         <v>-18495744.84941403</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7423,7 +7377,7 @@
         <v>-18494744.84941403</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7456,7 +7410,7 @@
         <v>-22647167.85141403</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7522,7 +7476,7 @@
         <v>-22647167.85141403</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7555,7 +7509,7 @@
         <v>-22538698.60081403</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7588,7 +7542,7 @@
         <v>-22636840.19411403</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7621,7 +7575,7 @@
         <v>-22636840.19411403</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7687,7 +7641,7 @@
         <v>-17621393.93361403</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7753,7 +7707,7 @@
         <v>-14365752.36011403</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7786,7 +7740,7 @@
         <v>-15867934.36011403</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7852,7 +7806,7 @@
         <v>-17878484.42942706</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7885,7 +7839,7 @@
         <v>-17878484.42942706</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7918,7 +7872,7 @@
         <v>-17711671.28912707</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7951,7 +7905,7 @@
         <v>-17711671.28912707</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8215,7 +8169,7 @@
         <v>-18939847.60272707</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -12351,6 +12305,6 @@
       <c r="M351" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest AOA.xlsx
+++ b/BackTest/2020-01-19 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,7 +1606,7 @@
         <v>-7457670.837278424</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8613653.837278424</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-9976869.183078423</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-11235769.55017842</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-18713334.0810097</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4642,14 +4642,10 @@
         <v>-19511420.7094097</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
@@ -4679,571 +4675,501 @@
         <v>-19506337.1187097</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>1.86</v>
       </c>
-      <c r="J130" t="n">
+      <c r="C131" t="n">
         <v>1.86</v>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="D131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9816.8264</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-19516153.9451097</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F132" t="n">
+        <v>163561.9554</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-19679715.9005097</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F133" t="n">
+        <v>80219.3602</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-19679715.9005097</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F134" t="n">
+        <v>35217.35</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-19644498.5505097</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F135" t="n">
+        <v>531142.303</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-20175640.8535097</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F131" t="n">
-        <v>9816.8264</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-19516153.9451097</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K131" t="inlineStr">
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3249792.0897</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-16925848.7638097</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F132" t="n">
-        <v>163561.9554</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-19679715.9005097</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J132" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K132" t="inlineStr">
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3085608.3445</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-13840240.4193097</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F138" t="n">
+        <v>437070</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-14277310.4193097</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F139" t="n">
+        <v>38592.7108</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-14238717.7085097</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F140" t="n">
+        <v>596.891</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-14238717.7085097</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4916.5495</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-14243634.2580097</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F142" t="n">
+        <v>729229.515</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-14243634.2580097</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F143" t="n">
+        <v>186423.6294</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-14430057.8874097</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1034732.809874706</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-14430057.8874097</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F133" t="n">
-        <v>80219.3602</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-19679715.9005097</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F134" t="n">
-        <v>35217.35</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-19644498.5505097</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F135" t="n">
-        <v>531142.303</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-20175640.8535097</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.852</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3249792.0897</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-16925848.7638097</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3085608.3445</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-13840240.4193097</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F138" t="n">
-        <v>437070</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-14277310.4193097</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F139" t="n">
-        <v>38592.7108</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-14238717.7085097</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F140" t="n">
-        <v>596.891</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-14238717.7085097</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4916.5495</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-14243634.2580097</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F142" t="n">
-        <v>729229.515</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-14243634.2580097</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F143" t="n">
-        <v>186423.6294</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-14430057.8874097</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="J143" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1034732.809874706</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-14430057.8874097</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="J144" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5278,7 +5204,7 @@
         <v>1.854</v>
       </c>
       <c r="J145" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5317,7 +5243,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5356,7 +5282,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5395,7 +5321,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5434,7 +5360,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5473,7 +5399,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5512,7 +5438,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5551,7 +5477,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5590,7 +5516,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5629,7 +5555,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5668,7 +5594,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5707,7 +5633,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5746,7 +5672,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5785,7 +5711,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5824,7 +5750,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5863,7 +5789,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5902,7 +5828,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5941,7 +5867,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5980,7 +5906,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6019,7 +5945,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6058,7 +5984,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6097,7 +6023,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6136,7 +6062,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6175,7 +6101,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6214,7 +6140,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6253,7 +6179,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6292,7 +6218,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6331,7 +6257,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6370,7 +6296,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6409,7 +6335,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6448,7 +6374,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6487,7 +6413,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6526,7 +6452,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6565,7 +6491,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6604,7 +6530,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6643,7 +6569,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6678,2395 +6604,2827 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F182" t="n">
+        <v>190000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-15253289.18148441</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1255.0861</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-15253289.18148441</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F184" t="n">
+        <v>435467.3137</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-15253289.18148441</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F185" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-15253289.18148441</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F186" t="n">
+        <v>71810.48420000001</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-15325099.66568441</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1396813</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-16721912.66568441</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F188" t="n">
+        <v>722741</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-16721912.66568441</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F189" t="n">
+        <v>151442.7501</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-16873355.41578441</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F190" t="n">
+        <v>527</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-16872828.41578441</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F191" t="n">
+        <v>539.2476</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-16873367.66338441</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F192" t="n">
+        <v>885702.49</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-15987665.17338441</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2873089.982629622</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-18860755.15601403</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2925603.8154</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-15935151.34061403</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F195" t="n">
+        <v>709574</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-16644725.34061403</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F196" t="n">
+        <v>263</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-16644462.34061403</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1110128.8384</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-17754591.17901403</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F198" t="n">
+        <v>174585.3956</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-17580005.78341403</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F199" t="n">
+        <v>836110.4291</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-18416116.21251403</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F200" t="n">
+        <v>79628.6369</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-18495744.84941403</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1516850.3771</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-18495744.84941403</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-18494744.84941403</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4152423.002</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-22647167.85141403</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2950085</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-22647167.85141403</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2330980</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-22647167.85141403</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F206" t="n">
+        <v>108469.2506</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-22538698.60081403</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F207" t="n">
+        <v>98141.59329999999</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-22636840.19411403</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F208" t="n">
+        <v>459580.2115</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-22636840.19411403</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2210287.2605</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-20426552.93361403</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2805159</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-17621393.93361403</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2879444.666</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-14741949.26761403</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F212" t="n">
+        <v>376196.9075</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-14365752.36011403</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1502182</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-15867934.36011403</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3376641</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-19244575.36011403</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1366090.930686966</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-17878484.42942706</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1274194</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-17878484.42942706</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="F217" t="n">
+        <v>166813.1403</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-17711671.28912707</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="F218" t="n">
+        <v>125109.8551618373</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-17711671.28912707</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3.8162729658791e-05</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-17711671.28912707</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="F220" t="n">
+        <v>26194.9642</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-17737866.25332707</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F221" t="n">
+        <v>358983.1743</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-18096849.42762707</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F222" t="n">
+        <v>4597928.1901</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-18096849.42762707</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F223" t="n">
+        <v>875784.443</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-18972633.87062707</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F224" t="n">
+        <v>32522.2679</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-18940111.60272707</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F225" t="n">
+        <v>264</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-18939847.60272707</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7984.7092</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-18939847.60272707</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F227" t="n">
+        <v>11361.6222</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-18928485.98052707</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-18929485.98052707</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2358033</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-21287518.98052707</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3642887</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-24930405.98052707</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1497853</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-26428258.98052707</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F232" t="n">
+        <v>528</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-26427730.98052707</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F233" t="n">
+        <v>265</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-26427730.98052707</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2361573</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-24066157.98052707</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2921962</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-24066157.98052707</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2045901</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-26112058.98052707</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F237" t="n">
+        <v>790.621</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-26111268.35952707</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="C238" t="n">
         <v>1.86</v>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="D238" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2804252</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-28915520.35952707</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2876304</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-26039216.35952707</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1486552.3</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-27525768.65952707</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F241" t="n">
+        <v>342121.8459</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-27867890.50542707</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="F242" t="n">
+        <v>742952.7028</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-28610843.20822706</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F243" t="n">
+        <v>56234.2099</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-28554608.99832707</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F244" t="n">
+        <v>13403.4026</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-28554608.99832707</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F245" t="n">
+        <v>408086.0558</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-28146522.94252707</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F246" t="n">
+        <v>760456.6955</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-27386066.24702707</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="F247" t="n">
+        <v>419235.9819</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-27805302.22892706</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3406388</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-24398914.22892706</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2260130</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-22138784.22892706</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F250" t="n">
+        <v>456900</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-22595684.22892706</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="F251" t="n">
+        <v>13403.4026</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-22582280.82632706</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F252" t="n">
+        <v>822.1011</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-22581458.72522706</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="F253" t="n">
+        <v>188186.0175</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-22769644.74272706</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1.018118279569893</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F182" t="n">
-        <v>190000</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-15253289.18148441</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1255.0861</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-15253289.18148441</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F184" t="n">
-        <v>435467.3137</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-15253289.18148441</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F185" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-15253289.18148441</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F186" t="n">
-        <v>71810.48420000001</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-15325099.66568441</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1396813</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-16721912.66568441</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F188" t="n">
-        <v>722741</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-16721912.66568441</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="F189" t="n">
-        <v>151442.7501</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-16873355.41578441</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="F190" t="n">
-        <v>527</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-16872828.41578441</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F191" t="n">
-        <v>539.2476</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-16873367.66338441</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F192" t="n">
-        <v>885702.49</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-15987665.17338441</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2873089.982629622</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-18860755.15601403</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F194" t="n">
-        <v>2925603.8154</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-15935151.34061403</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F195" t="n">
-        <v>709574</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-16644725.34061403</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F196" t="n">
-        <v>263</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-16644462.34061403</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1110128.8384</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-17754591.17901403</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F198" t="n">
-        <v>174585.3956</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-17580005.78341403</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F199" t="n">
-        <v>836110.4291</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-18416116.21251403</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F200" t="n">
-        <v>79628.6369</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-18495744.84941403</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1516850.3771</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-18495744.84941403</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-18494744.84941403</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F203" t="n">
-        <v>4152423.002</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-22647167.85141403</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2950085</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-22647167.85141403</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F205" t="n">
-        <v>2330980</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-22647167.85141403</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F206" t="n">
-        <v>108469.2506</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-22538698.60081403</v>
-      </c>
-      <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F207" t="n">
-        <v>98141.59329999999</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-22636840.19411403</v>
-      </c>
-      <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F208" t="n">
-        <v>459580.2115</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-22636840.19411403</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2210287.2605</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-20426552.93361403</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2805159</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-17621393.93361403</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2879444.666</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-14741949.26761403</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F212" t="n">
-        <v>376196.9075</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-14365752.36011403</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1502182</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-15867934.36011403</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F214" t="n">
-        <v>3376641</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-19244575.36011403</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1366090.930686966</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-17878484.42942706</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1274194</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-17878484.42942706</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="D217" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="F217" t="n">
-        <v>166813.1403</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-17711671.28912707</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="F218" t="n">
-        <v>125109.8551618373</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-17711671.28912707</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1.905</v>
-      </c>
-      <c r="F219" t="n">
-        <v>3.8162729658791e-05</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-17711671.28912707</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="F220" t="n">
-        <v>26194.9642</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-17737866.25332707</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F221" t="n">
-        <v>358983.1743</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-18096849.42762707</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F222" t="n">
-        <v>4597928.1901</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-18096849.42762707</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F223" t="n">
-        <v>875784.443</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-18972633.87062707</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F224" t="n">
-        <v>32522.2679</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-18940111.60272707</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F225" t="n">
-        <v>264</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-18939847.60272707</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F226" t="n">
-        <v>7984.7092</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-18939847.60272707</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F227" t="n">
-        <v>11361.6222</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-18928485.98052707</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-18929485.98052707</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2358033</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-21287518.98052707</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="E230" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F230" t="n">
-        <v>3642887</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-24930405.98052707</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E231" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1497853</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-26428258.98052707</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E232" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="F232" t="n">
-        <v>528</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-26427730.98052707</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E233" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="F233" t="n">
-        <v>265</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-26427730.98052707</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D234" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E234" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2361573</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-24066157.98052707</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E235" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F235" t="n">
-        <v>2921962</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-24066157.98052707</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E236" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2045901</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-26112058.98052707</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E237" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="F237" t="n">
-        <v>790.621</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-26111268.35952707</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D238" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="E238" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2804252</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-28915520.35952707</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="E239" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2876304</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-26039216.35952707</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D240" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E240" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1486552.3</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-27525768.65952707</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D241" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="E241" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F241" t="n">
-        <v>342121.8459</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-27867890.50542707</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="D242" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E242" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="F242" t="n">
-        <v>742952.7028</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-28610843.20822706</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D243" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E243" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F243" t="n">
-        <v>56234.2099</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-28554608.99832707</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C244" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D244" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E244" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F244" t="n">
-        <v>13403.4026</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-28554608.99832707</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D245" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E245" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F245" t="n">
-        <v>408086.0558</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-28146522.94252707</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C246" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D246" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E246" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F246" t="n">
-        <v>760456.6955</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-27386066.24702707</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>1.864</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="D247" t="n">
-        <v>1.864</v>
-      </c>
-      <c r="E247" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="F247" t="n">
-        <v>419235.9819</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-27805302.22892706</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D248" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E248" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F248" t="n">
-        <v>3406388</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-24398914.22892706</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C249" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D249" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E249" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F249" t="n">
-        <v>2260130</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-22138784.22892706</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D250" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E250" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F250" t="n">
-        <v>456900</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-22595684.22892706</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="D251" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="E251" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="F251" t="n">
-        <v>13403.4026</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-22582280.82632706</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C252" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D252" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E252" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F252" t="n">
-        <v>822.1011</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-22581458.72522706</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C253" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D253" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E253" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="F253" t="n">
-        <v>188186.0175</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-22769644.74272706</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
-        <v>1</v>
+        <v>1.00578167115903</v>
       </c>
       <c r="M253" t="inlineStr"/>
     </row>
@@ -12305,6 +12663,6 @@
       <c r="M351" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest AOA.xlsx
+++ b/BackTest/2020-01-19 BackTest AOA.xlsx
@@ -1606,7 +1606,7 @@
         <v>-7457670.837278424</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8613653.837278424</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-9976869.183078423</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-11235769.55017842</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -4048,10 +4048,14 @@
         <v>-18284993.7400097</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.876</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4081,11 +4085,19 @@
         <v>-18125478.1899097</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4126,19 @@
         <v>-18125478.1899097</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4510,10 +4530,14 @@
         <v>-18677614.1017097</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.876</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4543,11 +4567,19 @@
         <v>-18713334.0810097</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4608,19 @@
         <v>-19056685.0748097</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4649,19 @@
         <v>-19511420.7094097</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4690,19 @@
         <v>-19511420.7094097</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4731,19 @@
         <v>-19506337.1187097</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4772,19 @@
         <v>-19516153.9451097</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4813,19 @@
         <v>-19679715.9005097</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4854,19 @@
         <v>-19679715.9005097</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4813,9 +4901,13 @@
         <v>1.85</v>
       </c>
       <c r="J134" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+        <v>1.876</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,15 +4936,17 @@
         <v>-20175640.8535097</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.865</v>
+      </c>
       <c r="J135" t="n">
-        <v>1.85</v>
+        <v>1.876</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4883,15 +4977,17 @@
         <v>-16925848.7638097</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J136" t="n">
-        <v>1.85</v>
+        <v>1.876</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4925,8 +5021,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4955,11 +5057,19 @@
         <v>-14277310.4193097</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4988,11 +5098,19 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5021,11 +5139,19 @@
         <v>-14238717.7085097</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5054,11 +5180,19 @@
         <v>-14243634.2580097</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5087,11 +5221,19 @@
         <v>-14243634.2580097</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5126,9 +5268,13 @@
         <v>1.855</v>
       </c>
       <c r="J143" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+        <v>1.876</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5163,11 +5309,11 @@
         <v>1.854</v>
       </c>
       <c r="J144" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -5204,7 +5350,7 @@
         <v>1.854</v>
       </c>
       <c r="J145" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5243,7 +5389,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5282,7 +5428,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5321,7 +5467,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5360,7 +5506,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5399,7 +5545,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5434,11 +5580,13 @@
         <v>-11759852.1302097</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.868</v>
+      </c>
       <c r="J151" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5477,7 +5625,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5512,11 +5660,13 @@
         <v>-11777469.8936097</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.867</v>
+      </c>
       <c r="J153" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5551,11 +5701,13 @@
         <v>-11776009.4058097</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.868</v>
+      </c>
       <c r="J154" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5590,11 +5742,13 @@
         <v>-11490302.17848441</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.87</v>
+      </c>
       <c r="J155" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5629,11 +5783,13 @@
         <v>-11198158.93218441</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.871</v>
+      </c>
       <c r="J156" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5668,11 +5824,13 @@
         <v>-10374758.50568441</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.878</v>
+      </c>
       <c r="J157" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5711,7 +5869,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5750,7 +5908,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5789,7 +5947,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5828,7 +5986,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5867,7 +6025,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5906,7 +6064,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5945,7 +6103,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5984,7 +6142,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6023,7 +6181,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6062,7 +6220,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6101,7 +6259,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6140,7 +6298,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6179,7 +6337,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6218,7 +6376,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6257,7 +6415,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6296,7 +6454,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6335,7 +6493,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6374,7 +6532,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6413,7 +6571,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6452,7 +6610,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6491,7 +6649,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6526,19 +6684,19 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>1.855</v>
+        <v>1.876</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1</v>
+        <v>1.009392324093817</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
@@ -6565,17 +6723,11 @@
         <v>-15063289.18148441</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6607,14 +6759,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6646,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6685,14 +6825,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6724,14 +6858,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6763,14 +6891,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6802,14 +6924,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6841,14 +6957,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6880,14 +6990,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6916,17 +7020,11 @@
         <v>-16873355.41578441</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6955,17 +7053,11 @@
         <v>-16872828.41578441</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6994,17 +7086,11 @@
         <v>-16873367.66338441</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7033,17 +7119,11 @@
         <v>-15987665.17338441</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7072,17 +7152,11 @@
         <v>-18860755.15601403</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7111,17 +7185,11 @@
         <v>-15935151.34061403</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7150,17 +7218,11 @@
         <v>-16644725.34061403</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7189,17 +7251,11 @@
         <v>-16644462.34061403</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7228,17 +7284,11 @@
         <v>-17754591.17901403</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7270,14 +7320,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7309,14 +7353,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7348,14 +7386,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7387,14 +7419,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7426,14 +7452,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7465,14 +7485,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7504,14 +7518,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7543,14 +7551,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7582,14 +7584,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7621,14 +7617,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7660,14 +7650,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7699,14 +7683,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7738,14 +7716,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7777,14 +7749,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7816,14 +7782,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7855,14 +7815,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7894,14 +7848,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7933,14 +7881,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7972,14 +7914,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8011,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8050,14 +7980,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8089,14 +8013,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8128,14 +8046,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8167,14 +8079,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8206,14 +8112,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8245,14 +8145,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8284,14 +8178,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8323,14 +8211,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8362,14 +8244,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8401,14 +8277,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8440,14 +8310,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8479,14 +8343,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8518,14 +8376,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8557,14 +8409,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8596,14 +8442,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8635,14 +8475,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8674,14 +8508,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8713,14 +8541,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8752,14 +8574,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8791,14 +8607,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8830,14 +8640,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8869,14 +8673,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8908,14 +8706,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8947,14 +8739,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8986,14 +8772,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9025,14 +8805,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9064,14 +8838,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9103,14 +8871,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9142,14 +8904,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9181,14 +8937,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9220,14 +8970,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9259,14 +9003,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9298,14 +9036,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9337,14 +9069,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9376,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9412,19 +9132,13 @@
         <v>-22769644.74272706</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
-        <v>1.00578167115903</v>
+        <v>1</v>
       </c>
       <c r="M253" t="inlineStr"/>
     </row>
